--- a/GATEWAY/S1#111SANTECXXXXX/santec_vendor/santec_ecaresuite/5.0.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111SANTECXXXXX/santec_vendor/santec_ecaresuite/5.0.0/report-checklist.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sorgenti\it-fse-accreditamento\GATEWAY\S1#111SANTECXXXXX\santec_vendor\santec_ecaresuite\5.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FSE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A41AAB-36CB-4BAA-9094-D689C3E8A3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="4200" windowWidth="22080" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="150" windowWidth="35835" windowHeight="19005"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$243</definedName>
-    <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$241</definedName>
+    <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$183</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="618">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -2060,29 +2059,6 @@
 Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
 ▪utilizzare il documento "SIGNED_RSA2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
 ▪comporre i metadati contenente la RequestBody utilizzando il json "RSA - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo DataInizioPrestazione con il seguente valore (formato non ammesso):
-  "dataInizioPrestazione": "2022-05-09-07:30+00"</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_PSS_CT3_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{identificativoDocUpdate}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_PSS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
-Per tutti i fornitori è necessario eliminare dal json il campo identificativoRep.</t>
-  </si>
-  <si>
-    <t>PUBBLICAZIONE_SOSTITUZIONE_CDA2_PSS_CT5_KO</t>
-  </si>
-  <si>
-    <t>Prerequisito: per i fornitori in grado di validare, deve essere effettuata la validazione del documento da pubblicare. 
-Viene richiamato il servizio di pubblicazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/v1/documents/{identificativoDocUpdate}" al fine di testare la Pubblicazione Sostituzione con errore a causa di una valorizzazione dei metadati non corretta (status code 400).
-Per la richiesta, se il fornitore non ha la possibilità di avere a disposizione un documento validato da utilizzare, è possibile:
-▪utilizzare il documento "SIGNED_PSS2.pdf" presente al path https://github.com/ministero-salute/it-fse-accreditamento; 
-▪comporre i metadati contenente la RequestBody utilizzando il json "PSS - Caso di Test 4 - Replace" presente al path "https://github.com/ministero-salute/it-fse-accreditamento"; in particolare sarà necessario inserire il prefisso SKIP_VALIDATION_ nel valore del campo "identificativoDoc".
 Per tutti i fornitori (in grado di validare o non) è necessario valorizzare nel json il campo DataInizioPrestazione con il seguente valore (formato non ammesso):
   "dataInizioPrestazione": "2022-05-09-07:30+00"</t>
   </si>
@@ -2769,51 +2745,30 @@
     <t>2023-04-30T01:10:11Z</t>
   </si>
   <si>
-    <t>L'applicativo garantisce l'inserimento dell’informazione inerente il livello di riservatezza del documento (confidentialityCode). Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
-    <t>L'applicativo garantisce l'inserimento corretto del codice fiscale del paziente. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
-    <t>L'applicativo garantisce l'inserimento dell’informazione corretta inerente il livello di riservatezza del documento (confidentialityCode). Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>2ae5ffa566c7fbea</t>
   </si>
   <si>
     <t>2023-04-30T01:30:41Z</t>
   </si>
   <si>
-    <t>L'applicativo garantisce l'inserimento corretto dei dati di residenza del paziente. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>d8163b1f57d1bf16</t>
   </si>
   <si>
     <t>2023-04-30T01:36:20Z</t>
   </si>
   <si>
-    <t>L'applicativo garantisce l'inserimento corretto delle generalità del paziente. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>2023-04-30T01:42:01Z</t>
   </si>
   <si>
     <t>5c6e261f8ed751bc</t>
   </si>
   <si>
-    <t>L'applicativo garantisce l'inserimento della corretta codifica del sesso del paziente. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>51e38eef9e401f1f</t>
   </si>
   <si>
     <t>2023-04-30T01:45:40Z</t>
   </si>
   <si>
-    <t>L'applicativo garantisce l'inserimento della corretta codifica della modalità di trasporto. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>2d23e2831c3a47ae</t>
   </si>
   <si>
@@ -2826,12 +2781,6 @@
     <t>2023-04-30T01:56:55Z</t>
   </si>
   <si>
-    <t>L'applicativo garantisce l'inserimento corretto dell'id dell'operatore dimettente. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
-    <t>L'applicativo obbliga ad inserire la modalità di trasporto. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>88000811db029467</t>
   </si>
   <si>
@@ -2865,9 +2814,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.492147354ac88d5a51e9e9de8b19845884e7fb51d47d9a18e62898eac220e0c0.fd4fd7971a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>L'applicativo obbliga ad inserire il motivo della visita. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>2023-05-02T12:23:55Z</t>
   </si>
   <si>
@@ -2889,15 +2835,6 @@
     <t>2023-05-02T12:38:14Z</t>
   </si>
   <si>
-    <t>L'applicativo obbliga ad inserire il problema principale nel motivo della visita. Il test viene comunque effettuato simulando un'eccezione nel codice.</t>
-  </si>
-  <si>
-    <t>L'applicativo obbliga ad inserire i dati del triage. Il test viene comunque effettuato simulando un'eccezione nel codice.</t>
-  </si>
-  <si>
-    <t>L'inserimento delle marche temporali nei dati anamnestici è garantita dall'applicativo. Il test viene comunque effettuato simulando un'eccezione nel codice.</t>
-  </si>
-  <si>
     <t>13593b9e1793950d</t>
   </si>
   <si>
@@ -3006,72 +2943,48 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.48b4e6a29c664fbc4b18f4aefeaf0dcf7ac9123c5babf312b445cce2f4d19db2.c638c7ba0e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>L'applicativo garantisce la correttezza formale e sostanziale del CF del paziente.. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.70893fd3f7394aa0aa86df6a6a5d4a21bd152eb21d3bb9186484e45b70baa3b8.cfb6032d5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>3fd07fd7597f3627</t>
   </si>
   <si>
-    <t>L'applicativo garantisce il corretto inserimento dell’informazione inerente il livello di riservatezza del documento (confidentialityCode). Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>ecae19050d6de04c</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.3e9f041133cc2d933ee9a60bedd432295df83afbc880bb2e5263ee43d4b3b910.b9f2265f42^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>L'applicativo garantisce il corretto inserimento delle informazioni relative al comune di residenza del paziente. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>c4108ecdb86a5b0e</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.a0b457d8344ea9c3a99616e1d66fbdf6754ef10389ae6a4de8d55e3b75398197.de03d86535^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>L'applicativo garantisce il corretto inserimento delle informazioni  anagrafiche del paziente. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>5860ffeac52f460f</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.548b7a71e15ab2032f791fd6e69cfe4d888edfcb85bcdd4ff7ef281b3aa46bd1.f2ea4321ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>L'applicativo garantisce il corretto inserimento delle informazioni  sul sesso del paziente. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>b451de7e8a1c8839</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.71fbe5ae66ea554afc3b33a28cc2848b4ba9f2250432e122c2b48b2a110e7077.cb47ea1072^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>L'applicativo garantisce il corretto inserimento delle informazioni  relative alla codifica delle prestazioni. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>5074f6eab9a85d07</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.af99f92b9ccd88feb0f9793437e8930967af35560e2573d51fef3ed70d2b89bc.2435105f32^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>L'applicativo garantisce il corretto inserimento delle informazioni relative al referto. Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>935306193972adc7</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.88372aab9ce8dfd10413addae65082838edc2eb4be26e029fbf7f11fcaf783a4.59fa95d8db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>L'applicativo garantisce il corretto inserimento dell’elemento signatureCode del firmatario . Il test viene comunque effettuato simulando un'ecceziione nel codice.</t>
-  </si>
-  <si>
     <t>2023-06-19T01:59:34Z</t>
   </si>
   <si>
@@ -3109,12 +3022,15 @@
   </si>
   <si>
     <t>2023-06-19T00:47:26Z</t>
+  </si>
+  <si>
+    <t>Le sezioni di CDA2 presenti nel test case non vengono gestite da applicativo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -3483,12 +3399,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -3506,18 +3422,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:A3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:A3">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ESITO"/>
+    <tableColumn id="1" name="ESITO"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="B1:B3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_2" displayName="Table_2" ref="B1:B3">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="APPLICABILITA'"/>
+    <tableColumn id="1" name="APPLICABILITA'"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3720,15 +3636,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T861"/>
+  <dimension ref="A1:T859"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D187" sqref="D187"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3772,7 +3688,7 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D2" s="23"/>
       <c r="F2" s="3"/>
@@ -3797,7 +3713,7 @@
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="31" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D3" s="23"/>
       <c r="F3" s="3"/>
@@ -3820,7 +3736,7 @@
       <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="31" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="2"/>
@@ -3844,7 +3760,7 @@
       <c r="A5" s="29"/>
       <c r="B5" s="30"/>
       <c r="C5" s="31" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D5" s="23"/>
       <c r="F5" s="3"/>
@@ -9898,123 +9814,167 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="240.75" hidden="1" thickBot="1">
+    <row r="184" spans="1:20" ht="150.75" thickBot="1">
       <c r="A184" s="11">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="F184" s="14"/>
-      <c r="G184" s="15"/>
-      <c r="H184" s="15"/>
-      <c r="I184" s="15"/>
-      <c r="J184" s="16"/>
+        <v>388</v>
+      </c>
+      <c r="F184" s="14">
+        <v>45096</v>
+      </c>
+      <c r="G184" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="H184" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="I184" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="J184" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="K184" s="16"/>
-      <c r="L184" s="16"/>
-      <c r="M184" s="16"/>
-      <c r="N184" s="16"/>
-      <c r="O184" s="16"/>
-      <c r="P184" s="16"/>
-      <c r="Q184" s="16"/>
+      <c r="L184" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M184" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N184" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="O184" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P184" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q184" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="R184" s="17"/>
       <c r="S184" s="18"/>
       <c r="T184" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="270.75" hidden="1" thickBot="1">
+    <row r="185" spans="1:20" ht="165.75" thickBot="1">
       <c r="A185" s="11">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="E185" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="F185" s="14"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="15"/>
-      <c r="J185" s="16"/>
+        <v>392</v>
+      </c>
+      <c r="F185" s="14">
+        <v>45096</v>
+      </c>
+      <c r="G185" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="H185" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="I185" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="J185" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="K185" s="16"/>
-      <c r="L185" s="16"/>
-      <c r="M185" s="16"/>
-      <c r="N185" s="16"/>
-      <c r="O185" s="16"/>
-      <c r="P185" s="16"/>
-      <c r="Q185" s="16"/>
+      <c r="L185" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M185" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N185" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="O185" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P185" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q185" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="R185" s="17"/>
       <c r="S185" s="18"/>
       <c r="T185" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="150.75" thickBot="1">
+    <row r="186" spans="1:20" ht="105.75" thickBot="1">
       <c r="A186" s="11">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C186" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E186" s="13" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F186" s="14">
         <v>45096</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="H186" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="I186" s="15" t="s">
-        <v>513</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
       <c r="J186" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K186" s="16"/>
       <c r="L186" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M186" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N186" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="O186" s="16"/>
+        <v>516</v>
+      </c>
+      <c r="O186" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P186" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q186" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="R186" s="17"/>
+        <v>495</v>
+      </c>
+      <c r="R186" s="17" t="s">
+        <v>396</v>
+      </c>
       <c r="S186" s="18"/>
       <c r="T186" s="19" t="s">
         <v>29</v>
@@ -10022,116 +9982,94 @@
     </row>
     <row r="187" spans="1:20" ht="165.75" thickBot="1">
       <c r="A187" s="11">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C187" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="E187" s="13" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="F187" s="14">
         <v>45096</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="I187" s="15" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
       <c r="J187" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K187" s="16"/>
-      <c r="L187" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="M187" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N187" s="16" t="s">
-        <v>515</v>
-      </c>
+      <c r="L187" s="16"/>
+      <c r="M187" s="16"/>
+      <c r="N187" s="16"/>
       <c r="O187" s="16"/>
-      <c r="P187" s="16" t="s">
-        <v>516</v>
-      </c>
+      <c r="P187" s="16"/>
       <c r="Q187" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R187" s="17"/>
       <c r="S187" s="18"/>
       <c r="T187" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="188" spans="1:20" ht="105.75" thickBot="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" ht="165.75" thickBot="1">
       <c r="A188" s="11">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C188" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="F188" s="14">
-        <v>45096</v>
-      </c>
-      <c r="G188" s="15" t="s">
-        <v>639</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="F188" s="14"/>
+      <c r="G188" s="15"/>
       <c r="H188" s="15"/>
       <c r="I188" s="15"/>
       <c r="J188" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K188" s="16"/>
-      <c r="L188" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="M188" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N188" s="16" t="s">
-        <v>520</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="K188" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="L188" s="16"/>
+      <c r="M188" s="16"/>
+      <c r="N188" s="16"/>
       <c r="O188" s="16"/>
-      <c r="P188" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q188" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="R188" s="17" t="s">
-        <v>400</v>
-      </c>
+      <c r="P188" s="16"/>
+      <c r="Q188" s="16"/>
+      <c r="R188" s="17"/>
       <c r="S188" s="18"/>
       <c r="T188" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="189" spans="1:20" ht="165.75" thickBot="1">
       <c r="A189" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C189" s="12" t="s">
         <v>55</v>
@@ -10142,30 +10080,22 @@
       <c r="E189" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="F189" s="14">
-        <v>45096</v>
-      </c>
-      <c r="G189" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="H189" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="I189" s="15" t="s">
-        <v>601</v>
-      </c>
+      <c r="F189" s="14"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
       <c r="J189" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K189" s="16"/>
+        <v>497</v>
+      </c>
+      <c r="K189" s="16" t="s">
+        <v>585</v>
+      </c>
       <c r="L189" s="16"/>
       <c r="M189" s="16"/>
       <c r="N189" s="16"/>
       <c r="O189" s="16"/>
       <c r="P189" s="16"/>
-      <c r="Q189" s="16" t="s">
-        <v>499</v>
-      </c>
+      <c r="Q189" s="16"/>
       <c r="R189" s="17"/>
       <c r="S189" s="18"/>
       <c r="T189" s="19" t="s">
@@ -10174,10 +10104,10 @@
     </row>
     <row r="190" spans="1:20" ht="165.75" thickBot="1">
       <c r="A190" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C190" s="12" t="s">
         <v>55</v>
@@ -10193,10 +10123,10 @@
       <c r="H190" s="15"/>
       <c r="I190" s="15"/>
       <c r="J190" s="16" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K190" s="16" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="L190" s="16"/>
       <c r="M190" s="16"/>
@@ -10210,12 +10140,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="165.75" thickBot="1">
+    <row r="191" spans="1:20" ht="120.75" thickBot="1">
       <c r="A191" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C191" s="12" t="s">
         <v>55</v>
@@ -10226,34 +10156,52 @@
       <c r="E191" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="F191" s="14"/>
-      <c r="G191" s="15"/>
-      <c r="H191" s="15"/>
-      <c r="I191" s="15"/>
+      <c r="F191" s="14">
+        <v>45096</v>
+      </c>
+      <c r="G191" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="H191" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="I191" s="15" t="s">
+        <v>587</v>
+      </c>
       <c r="J191" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K191" s="16" t="s">
-        <v>602</v>
-      </c>
-      <c r="L191" s="16"/>
-      <c r="M191" s="16"/>
-      <c r="N191" s="16"/>
-      <c r="O191" s="16"/>
-      <c r="P191" s="16"/>
-      <c r="Q191" s="16"/>
+        <v>396</v>
+      </c>
+      <c r="K191" s="16"/>
+      <c r="L191" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M191" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N191" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="O191" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P191" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q191" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="R191" s="17"/>
       <c r="S191" s="18"/>
       <c r="T191" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" ht="165.75" thickBot="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" ht="135.75" thickBot="1">
       <c r="A192" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C192" s="12" t="s">
         <v>55</v>
@@ -10264,34 +10212,52 @@
       <c r="E192" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="F192" s="14"/>
-      <c r="G192" s="15"/>
-      <c r="H192" s="15"/>
-      <c r="I192" s="15"/>
+      <c r="F192" s="14">
+        <v>45096</v>
+      </c>
+      <c r="G192" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="H192" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="I192" s="15" t="s">
+        <v>589</v>
+      </c>
       <c r="J192" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K192" s="16" t="s">
-        <v>602</v>
-      </c>
-      <c r="L192" s="16"/>
-      <c r="M192" s="16"/>
-      <c r="N192" s="16"/>
-      <c r="O192" s="16"/>
-      <c r="P192" s="16"/>
-      <c r="Q192" s="16"/>
+        <v>396</v>
+      </c>
+      <c r="K192" s="16"/>
+      <c r="L192" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M192" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N192" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="O192" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P192" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q192" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="R192" s="17"/>
       <c r="S192" s="18"/>
       <c r="T192" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" ht="120.75" thickBot="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" ht="135.75" thickBot="1">
       <c r="A193" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C193" s="12" t="s">
         <v>55</v>
@@ -10306,35 +10272,35 @@
         <v>45096</v>
       </c>
       <c r="G193" s="15" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="H193" s="15" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="I193" s="15" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="J193" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K193" s="16" t="s">
-        <v>528</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K193" s="16"/>
       <c r="L193" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M193" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N193" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O193" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O193" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P193" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q193" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R193" s="17"/>
       <c r="S193" s="18"/>
@@ -10344,10 +10310,10 @@
     </row>
     <row r="194" spans="1:20" ht="135.75" thickBot="1">
       <c r="A194" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C194" s="12" t="s">
         <v>55</v>
@@ -10362,35 +10328,35 @@
         <v>45096</v>
       </c>
       <c r="G194" s="15" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="H194" s="15" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="I194" s="15" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="J194" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K194" s="16" t="s">
-        <v>607</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K194" s="16"/>
       <c r="L194" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M194" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N194" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O194" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O194" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P194" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q194" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R194" s="17"/>
       <c r="S194" s="18"/>
@@ -10398,12 +10364,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="135.75" thickBot="1">
+    <row r="195" spans="1:20" ht="127.5" customHeight="1" thickBot="1">
       <c r="A195" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>55</v>
@@ -10418,35 +10384,35 @@
         <v>45096</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="H195" s="15" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="J195" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K195" s="16" t="s">
-        <v>610</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K195" s="16"/>
       <c r="L195" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M195" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N195" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O195" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O195" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P195" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q195" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R195" s="17"/>
       <c r="S195" s="18"/>
@@ -10454,12 +10420,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="135.75" thickBot="1">
+    <row r="196" spans="1:20" ht="142.5" customHeight="1" thickBot="1">
       <c r="A196" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C196" s="12" t="s">
         <v>55</v>
@@ -10474,35 +10440,35 @@
         <v>45096</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="H196" s="15" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="J196" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K196" s="16" t="s">
-        <v>613</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K196" s="16"/>
       <c r="L196" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M196" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N196" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O196" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O196" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P196" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q196" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R196" s="17"/>
       <c r="S196" s="18"/>
@@ -10510,12 +10476,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="127.5" customHeight="1" thickBot="1">
+    <row r="197" spans="1:20" ht="144" customHeight="1" thickBot="1">
       <c r="A197" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C197" s="12" t="s">
         <v>55</v>
@@ -10526,52 +10492,34 @@
       <c r="E197" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="F197" s="14">
-        <v>45096</v>
-      </c>
-      <c r="G197" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="H197" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="I197" s="15" t="s">
-        <v>615</v>
-      </c>
+      <c r="F197" s="14"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
+      <c r="I197" s="15"/>
       <c r="J197" s="16" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="K197" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="L197" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="M197" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N197" s="16" t="s">
-        <v>524</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="L197" s="16"/>
+      <c r="M197" s="16"/>
+      <c r="N197" s="16"/>
       <c r="O197" s="16"/>
-      <c r="P197" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q197" s="16" t="s">
-        <v>499</v>
-      </c>
+      <c r="P197" s="16"/>
+      <c r="Q197" s="16"/>
       <c r="R197" s="17"/>
       <c r="S197" s="18"/>
       <c r="T197" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="142.5" customHeight="1" thickBot="1">
+    <row r="198" spans="1:20" ht="135.75" thickBot="1">
       <c r="A198" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C198" s="12" t="s">
         <v>55</v>
@@ -10582,52 +10530,34 @@
       <c r="E198" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="F198" s="14">
-        <v>45096</v>
-      </c>
-      <c r="G198" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="H198" s="15" t="s">
+      <c r="F198" s="14"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="15"/>
+      <c r="I198" s="15"/>
+      <c r="J198" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="K198" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="I198" s="15" t="s">
-        <v>618</v>
-      </c>
-      <c r="J198" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K198" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="L198" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="M198" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N198" s="16" t="s">
-        <v>524</v>
-      </c>
+      <c r="L198" s="16"/>
+      <c r="M198" s="16"/>
+      <c r="N198" s="16"/>
       <c r="O198" s="16"/>
-      <c r="P198" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q198" s="16" t="s">
-        <v>499</v>
-      </c>
+      <c r="P198" s="16"/>
+      <c r="Q198" s="16"/>
       <c r="R198" s="17"/>
       <c r="S198" s="18"/>
       <c r="T198" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="144" customHeight="1" thickBot="1">
+    <row r="199" spans="1:20" ht="120.75" thickBot="1">
       <c r="A199" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C199" s="12" t="s">
         <v>55</v>
@@ -10643,9 +10573,11 @@
       <c r="H199" s="15"/>
       <c r="I199" s="15"/>
       <c r="J199" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K199" s="16"/>
+        <v>497</v>
+      </c>
+      <c r="K199" s="16" t="s">
+        <v>617</v>
+      </c>
       <c r="L199" s="16"/>
       <c r="M199" s="16"/>
       <c r="N199" s="16"/>
@@ -10658,12 +10590,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="135.75" thickBot="1">
+    <row r="200" spans="1:20" ht="120.75" thickBot="1">
       <c r="A200" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C200" s="12" t="s">
         <v>55</v>
@@ -10674,32 +10606,52 @@
       <c r="E200" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="F200" s="14"/>
-      <c r="G200" s="15"/>
-      <c r="H200" s="15"/>
-      <c r="I200" s="15"/>
+      <c r="F200" s="14">
+        <v>45096</v>
+      </c>
+      <c r="G200" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="H200" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="I200" s="15" t="s">
+        <v>599</v>
+      </c>
       <c r="J200" s="16" t="s">
-        <v>501</v>
+        <v>396</v>
       </c>
       <c r="K200" s="16"/>
-      <c r="L200" s="16"/>
-      <c r="M200" s="16"/>
-      <c r="N200" s="16"/>
-      <c r="O200" s="16"/>
-      <c r="P200" s="16"/>
-      <c r="Q200" s="16"/>
+      <c r="L200" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M200" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N200" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="O200" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P200" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q200" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="R200" s="17"/>
       <c r="S200" s="18"/>
       <c r="T200" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="120.75" thickBot="1">
+    <row r="201" spans="1:20" ht="135.75" thickBot="1">
       <c r="A201" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C201" s="12" t="s">
         <v>55</v>
@@ -10710,32 +10662,52 @@
       <c r="E201" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="F201" s="14"/>
-      <c r="G201" s="15"/>
-      <c r="H201" s="15"/>
-      <c r="I201" s="15"/>
+      <c r="F201" s="14">
+        <v>45096</v>
+      </c>
+      <c r="G201" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="H201" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="I201" s="15" t="s">
+        <v>601</v>
+      </c>
       <c r="J201" s="16" t="s">
-        <v>501</v>
+        <v>396</v>
       </c>
       <c r="K201" s="16"/>
-      <c r="L201" s="16"/>
-      <c r="M201" s="16"/>
-      <c r="N201" s="16"/>
-      <c r="O201" s="16"/>
-      <c r="P201" s="16"/>
-      <c r="Q201" s="16"/>
+      <c r="L201" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M201" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N201" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="O201" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P201" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q201" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="R201" s="17"/>
       <c r="S201" s="18"/>
       <c r="T201" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="120.75" thickBot="1">
+    <row r="202" spans="1:20" ht="135.75" thickBot="1">
       <c r="A202" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C202" s="12" t="s">
         <v>55</v>
@@ -10746,40 +10718,22 @@
       <c r="E202" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="F202" s="14">
-        <v>45096</v>
-      </c>
-      <c r="G202" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="H202" s="15" t="s">
-        <v>620</v>
-      </c>
-      <c r="I202" s="15" t="s">
-        <v>621</v>
-      </c>
+      <c r="F202" s="14"/>
+      <c r="G202" s="15"/>
+      <c r="H202" s="15"/>
+      <c r="I202" s="15"/>
       <c r="J202" s="16" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="K202" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="L202" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="M202" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N202" s="16" t="s">
-        <v>524</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="L202" s="16"/>
+      <c r="M202" s="16"/>
+      <c r="N202" s="16"/>
       <c r="O202" s="16"/>
-      <c r="P202" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q202" s="16" t="s">
-        <v>499</v>
-      </c>
+      <c r="P202" s="16"/>
+      <c r="Q202" s="16"/>
       <c r="R202" s="17"/>
       <c r="S202" s="18"/>
       <c r="T202" s="19" t="s">
@@ -10788,10 +10742,10 @@
     </row>
     <row r="203" spans="1:20" ht="135.75" thickBot="1">
       <c r="A203" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C203" s="12" t="s">
         <v>55</v>
@@ -10802,40 +10756,22 @@
       <c r="E203" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="F203" s="14">
-        <v>45096</v>
-      </c>
-      <c r="G203" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="H203" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="I203" s="15" t="s">
-        <v>624</v>
-      </c>
+      <c r="F203" s="14"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
+      <c r="I203" s="15"/>
       <c r="J203" s="16" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="K203" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="L203" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="M203" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N203" s="16" t="s">
-        <v>524</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="L203" s="16"/>
+      <c r="M203" s="16"/>
+      <c r="N203" s="16"/>
       <c r="O203" s="16"/>
-      <c r="P203" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q203" s="16" t="s">
-        <v>499</v>
-      </c>
+      <c r="P203" s="16"/>
+      <c r="Q203" s="16"/>
       <c r="R203" s="17"/>
       <c r="S203" s="18"/>
       <c r="T203" s="19" t="s">
@@ -10844,10 +10780,10 @@
     </row>
     <row r="204" spans="1:20" ht="135.75" thickBot="1">
       <c r="A204" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C204" s="12" t="s">
         <v>55</v>
@@ -10863,9 +10799,11 @@
       <c r="H204" s="15"/>
       <c r="I204" s="15"/>
       <c r="J204" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K204" s="16"/>
+        <v>497</v>
+      </c>
+      <c r="K204" s="16" t="s">
+        <v>617</v>
+      </c>
       <c r="L204" s="16"/>
       <c r="M204" s="16"/>
       <c r="N204" s="16"/>
@@ -10880,10 +10818,10 @@
     </row>
     <row r="205" spans="1:20" ht="135.75" thickBot="1">
       <c r="A205" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C205" s="12" t="s">
         <v>55</v>
@@ -10899,9 +10837,11 @@
       <c r="H205" s="15"/>
       <c r="I205" s="15"/>
       <c r="J205" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K205" s="16"/>
+        <v>497</v>
+      </c>
+      <c r="K205" s="16" t="s">
+        <v>617</v>
+      </c>
       <c r="L205" s="16"/>
       <c r="M205" s="16"/>
       <c r="N205" s="16"/>
@@ -10916,10 +10856,10 @@
     </row>
     <row r="206" spans="1:20" ht="135.75" thickBot="1">
       <c r="A206" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C206" s="12" t="s">
         <v>55</v>
@@ -10935,9 +10875,11 @@
       <c r="H206" s="15"/>
       <c r="I206" s="15"/>
       <c r="J206" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K206" s="16"/>
+        <v>497</v>
+      </c>
+      <c r="K206" s="16" t="s">
+        <v>617</v>
+      </c>
       <c r="L206" s="16"/>
       <c r="M206" s="16"/>
       <c r="N206" s="16"/>
@@ -10952,10 +10894,10 @@
     </row>
     <row r="207" spans="1:20" ht="135.75" thickBot="1">
       <c r="A207" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C207" s="12" t="s">
         <v>55</v>
@@ -10971,9 +10913,11 @@
       <c r="H207" s="15"/>
       <c r="I207" s="15"/>
       <c r="J207" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K207" s="16"/>
+        <v>497</v>
+      </c>
+      <c r="K207" s="16" t="s">
+        <v>617</v>
+      </c>
       <c r="L207" s="16"/>
       <c r="M207" s="16"/>
       <c r="N207" s="16"/>
@@ -10988,10 +10932,10 @@
     </row>
     <row r="208" spans="1:20" ht="135.75" thickBot="1">
       <c r="A208" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C208" s="12" t="s">
         <v>55</v>
@@ -11007,9 +10951,11 @@
       <c r="H208" s="15"/>
       <c r="I208" s="15"/>
       <c r="J208" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K208" s="16"/>
+        <v>497</v>
+      </c>
+      <c r="K208" s="16" t="s">
+        <v>617</v>
+      </c>
       <c r="L208" s="16"/>
       <c r="M208" s="16"/>
       <c r="N208" s="16"/>
@@ -11024,10 +10970,10 @@
     </row>
     <row r="209" spans="1:20" ht="135.75" thickBot="1">
       <c r="A209" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C209" s="12" t="s">
         <v>55</v>
@@ -11038,48 +10984,76 @@
       <c r="E209" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="F209" s="14"/>
-      <c r="G209" s="15"/>
-      <c r="H209" s="15"/>
-      <c r="I209" s="15"/>
+      <c r="F209" s="14">
+        <v>45096</v>
+      </c>
+      <c r="G209" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="H209" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="I209" s="15" t="s">
+        <v>603</v>
+      </c>
       <c r="J209" s="16" t="s">
-        <v>501</v>
+        <v>396</v>
       </c>
       <c r="K209" s="16"/>
-      <c r="L209" s="16"/>
-      <c r="M209" s="16"/>
-      <c r="N209" s="16"/>
-      <c r="O209" s="16"/>
-      <c r="P209" s="16"/>
-      <c r="Q209" s="16"/>
+      <c r="L209" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M209" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N209" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="O209" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P209" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q209" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="R209" s="17"/>
       <c r="S209" s="18"/>
       <c r="T209" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="135.75" thickBot="1">
+    <row r="210" spans="1:20" ht="150.75" thickBot="1">
       <c r="A210" s="11">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>495</v>
+        <v>379</v>
       </c>
       <c r="E210" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="F210" s="14"/>
-      <c r="G210" s="15"/>
-      <c r="H210" s="15"/>
-      <c r="I210" s="15"/>
+        <v>380</v>
+      </c>
+      <c r="F210" s="14">
+        <v>45045</v>
+      </c>
+      <c r="G210" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="H210" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="I210" s="15" t="s">
+        <v>503</v>
+      </c>
       <c r="J210" s="16" t="s">
-        <v>501</v>
+        <v>396</v>
       </c>
       <c r="K210" s="16"/>
       <c r="L210" s="16"/>
@@ -11087,75 +11061,67 @@
       <c r="N210" s="16"/>
       <c r="O210" s="16"/>
       <c r="P210" s="16"/>
-      <c r="Q210" s="16"/>
+      <c r="Q210" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="R210" s="17"/>
       <c r="S210" s="18"/>
       <c r="T210" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="211" spans="1:20" ht="135.75" thickBot="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" ht="150.75" thickBot="1">
       <c r="A211" s="11">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B211" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E211" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="C211" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D211" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="E211" s="13" t="s">
-        <v>498</v>
-      </c>
       <c r="F211" s="14">
-        <v>45096</v>
+        <v>45046</v>
       </c>
       <c r="G211" s="15" t="s">
-        <v>629</v>
+        <v>507</v>
       </c>
       <c r="H211" s="15" t="s">
-        <v>626</v>
+        <v>505</v>
       </c>
       <c r="I211" s="15" t="s">
-        <v>627</v>
+        <v>506</v>
       </c>
       <c r="J211" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K211" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="L211" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="M211" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N211" s="16" t="s">
-        <v>524</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K211" s="16"/>
+      <c r="L211" s="16"/>
+      <c r="M211" s="16"/>
+      <c r="N211" s="16"/>
       <c r="O211" s="16"/>
-      <c r="P211" s="16" t="s">
-        <v>516</v>
-      </c>
+      <c r="P211" s="16"/>
       <c r="Q211" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R211" s="17"/>
       <c r="S211" s="18"/>
       <c r="T211" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="212" spans="1:20" ht="150.75" thickBot="1">
       <c r="A212" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C212" s="12" t="s">
         <v>50</v>
@@ -11166,30 +11132,22 @@
       <c r="E212" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="F212" s="14">
-        <v>45045</v>
-      </c>
-      <c r="G212" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="H212" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="I212" s="15" t="s">
-        <v>507</v>
-      </c>
+      <c r="F212" s="14"/>
+      <c r="G212" s="15"/>
+      <c r="H212" s="15"/>
+      <c r="I212" s="15"/>
       <c r="J212" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K212" s="16"/>
+        <v>497</v>
+      </c>
+      <c r="K212" s="16" t="s">
+        <v>585</v>
+      </c>
       <c r="L212" s="16"/>
       <c r="M212" s="16"/>
       <c r="N212" s="16"/>
       <c r="O212" s="16"/>
       <c r="P212" s="16"/>
-      <c r="Q212" s="16" t="s">
-        <v>499</v>
-      </c>
+      <c r="Q212" s="16"/>
       <c r="R212" s="17"/>
       <c r="S212" s="18"/>
       <c r="T212" s="19" t="s">
@@ -11198,10 +11156,10 @@
     </row>
     <row r="213" spans="1:20" ht="150.75" thickBot="1">
       <c r="A213" s="11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C213" s="12" t="s">
         <v>50</v>
@@ -11212,30 +11170,22 @@
       <c r="E213" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="F213" s="14">
-        <v>45046</v>
-      </c>
-      <c r="G213" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="H213" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="I213" s="15" t="s">
-        <v>510</v>
-      </c>
+      <c r="F213" s="14"/>
+      <c r="G213" s="15"/>
+      <c r="H213" s="15"/>
+      <c r="I213" s="15"/>
       <c r="J213" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K213" s="16"/>
+        <v>497</v>
+      </c>
+      <c r="K213" s="16" t="s">
+        <v>585</v>
+      </c>
       <c r="L213" s="16"/>
       <c r="M213" s="16"/>
       <c r="N213" s="16"/>
       <c r="O213" s="16"/>
       <c r="P213" s="16"/>
-      <c r="Q213" s="16" t="s">
-        <v>499</v>
-      </c>
+      <c r="Q213" s="16"/>
       <c r="R213" s="17"/>
       <c r="S213" s="18"/>
       <c r="T213" s="19" t="s">
@@ -11244,181 +11194,219 @@
     </row>
     <row r="214" spans="1:20" ht="150.75" thickBot="1">
       <c r="A214" s="11">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C214" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E214" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F214" s="14"/>
-      <c r="G214" s="15"/>
-      <c r="H214" s="15"/>
-      <c r="I214" s="15"/>
+        <v>390</v>
+      </c>
+      <c r="F214" s="14">
+        <v>45046</v>
+      </c>
+      <c r="G214" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="H214" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="I214" s="15" t="s">
+        <v>509</v>
+      </c>
       <c r="J214" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K214" s="16" t="s">
-        <v>602</v>
-      </c>
-      <c r="L214" s="16"/>
-      <c r="M214" s="16"/>
-      <c r="N214" s="16"/>
-      <c r="O214" s="16"/>
-      <c r="P214" s="16"/>
-      <c r="Q214" s="16"/>
+        <v>396</v>
+      </c>
+      <c r="K214" s="16"/>
+      <c r="L214" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M214" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N214" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="O214" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P214" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q214" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="R214" s="17"/>
       <c r="S214" s="18"/>
       <c r="T214" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:20" ht="150.75" thickBot="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" ht="165.75" thickBot="1">
       <c r="A215" s="11">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C215" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E215" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="F215" s="14"/>
-      <c r="G215" s="15"/>
-      <c r="H215" s="15"/>
-      <c r="I215" s="15"/>
+        <v>394</v>
+      </c>
+      <c r="F215" s="14">
+        <v>45046</v>
+      </c>
+      <c r="G215" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="H215" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="I215" s="15" t="s">
+        <v>509</v>
+      </c>
       <c r="J215" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K215" s="16" t="s">
-        <v>602</v>
-      </c>
-      <c r="L215" s="16"/>
-      <c r="M215" s="16"/>
-      <c r="N215" s="16"/>
-      <c r="O215" s="16"/>
-      <c r="P215" s="16"/>
-      <c r="Q215" s="16"/>
+        <v>396</v>
+      </c>
+      <c r="K215" s="16"/>
+      <c r="L215" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M215" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N215" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="O215" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P215" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q215" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="R215" s="17"/>
       <c r="S215" s="18"/>
       <c r="T215" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="216" spans="1:20" ht="150.75" thickBot="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" ht="105.75" thickBot="1">
       <c r="A216" s="11">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C216" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="E216" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F216" s="14">
         <v>45046</v>
       </c>
       <c r="G216" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="H216" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="I216" s="15" t="s">
-        <v>513</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="H216" s="15"/>
+      <c r="I216" s="15"/>
       <c r="J216" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K216" s="16"/>
       <c r="L216" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M216" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N216" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="O216" s="16"/>
+        <v>516</v>
+      </c>
+      <c r="O216" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P216" s="16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q216" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="R216" s="17"/>
+        <v>495</v>
+      </c>
+      <c r="R216" s="17" t="s">
+        <v>396</v>
+      </c>
       <c r="S216" s="18"/>
       <c r="T216" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="165.75" thickBot="1">
+    <row r="217" spans="1:20" ht="105.75" thickBot="1">
       <c r="A217" s="11">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C217" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E217" s="13" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F217" s="14">
         <v>45046</v>
       </c>
       <c r="G217" s="15" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H217" s="15" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I217" s="15" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
       <c r="J217" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K217" s="16"/>
       <c r="L217" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M217" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N217" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="O217" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O217" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P217" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q217" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R217" s="17"/>
       <c r="S217" s="18"/>
@@ -11428,51 +11416,55 @@
     </row>
     <row r="218" spans="1:20" ht="105.75" thickBot="1">
       <c r="A218" s="11">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C218" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D218" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E218" s="13" t="s">
         <v>402</v>
-      </c>
-      <c r="E218" s="13" t="s">
-        <v>399</v>
       </c>
       <c r="F218" s="14">
         <v>45046</v>
       </c>
       <c r="G218" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="H218" s="15"/>
-      <c r="I218" s="15"/>
+        <v>523</v>
+      </c>
+      <c r="H218" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="I218" s="15" t="s">
+        <v>522</v>
+      </c>
       <c r="J218" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K218" s="16"/>
       <c r="L218" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M218" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N218" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="O218" s="16"/>
+      <c r="O218" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P218" s="16" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="Q218" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="R218" s="17" t="s">
-        <v>400</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="R218" s="17"/>
       <c r="S218" s="18"/>
       <c r="T218" s="19" t="s">
         <v>29</v>
@@ -11480,10 +11472,10 @@
     </row>
     <row r="219" spans="1:20" ht="105.75" thickBot="1">
       <c r="A219" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C219" s="12" t="s">
         <v>50</v>
@@ -11498,35 +11490,35 @@
         <v>45046</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H219" s="15" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I219" s="15" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="J219" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K219" s="16" t="s">
-        <v>528</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K219" s="16"/>
       <c r="L219" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M219" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N219" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O219" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O219" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P219" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q219" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R219" s="17"/>
       <c r="S219" s="18"/>
@@ -11534,12 +11526,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="105.75" thickBot="1">
+    <row r="220" spans="1:20" ht="120.75" thickBot="1">
       <c r="A220" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C220" s="12" t="s">
         <v>50</v>
@@ -11557,32 +11549,32 @@
         <v>527</v>
       </c>
       <c r="H220" s="15" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I220" s="15" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="J220" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K220" s="16" t="s">
-        <v>529</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K220" s="16"/>
       <c r="L220" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M220" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N220" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O220" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O220" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P220" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q220" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R220" s="17"/>
       <c r="S220" s="18"/>
@@ -11592,10 +11584,10 @@
     </row>
     <row r="221" spans="1:20" ht="105.75" thickBot="1">
       <c r="A221" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C221" s="12" t="s">
         <v>50</v>
@@ -11610,35 +11602,35 @@
         <v>45046</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H221" s="15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I221" s="15" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="J221" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K221" s="16" t="s">
-        <v>530</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K221" s="16"/>
       <c r="L221" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M221" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N221" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O221" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O221" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P221" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q221" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R221" s="17"/>
       <c r="S221" s="18"/>
@@ -11646,12 +11638,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="120.75" thickBot="1">
+    <row r="222" spans="1:20" ht="105.75" thickBot="1">
       <c r="A222" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C222" s="12" t="s">
         <v>50</v>
@@ -11666,35 +11658,35 @@
         <v>45046</v>
       </c>
       <c r="G222" s="15" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H222" s="15" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I222" s="15" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="J222" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K222" s="16" t="s">
-        <v>533</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K222" s="16"/>
       <c r="L222" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M222" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N222" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O222" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O222" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P222" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q222" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R222" s="17"/>
       <c r="S222" s="18"/>
@@ -11704,10 +11696,10 @@
     </row>
     <row r="223" spans="1:20" ht="105.75" thickBot="1">
       <c r="A223" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C223" s="12" t="s">
         <v>50</v>
@@ -11722,35 +11714,35 @@
         <v>45046</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H223" s="15" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="I223" s="15" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="J223" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K223" s="16" t="s">
-        <v>536</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K223" s="16"/>
       <c r="L223" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M223" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N223" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O223" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O223" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P223" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q223" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R223" s="17"/>
       <c r="S223" s="18"/>
@@ -11758,12 +11750,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="105.75" thickBot="1">
+    <row r="224" spans="1:20" ht="120.75" thickBot="1">
       <c r="A224" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C224" s="12" t="s">
         <v>50</v>
@@ -11778,35 +11770,35 @@
         <v>45046</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H224" s="15" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="I224" s="15" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="J224" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K224" s="16" t="s">
-        <v>539</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K224" s="16"/>
       <c r="L224" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M224" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N224" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O224" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O224" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P224" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q224" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R224" s="17"/>
       <c r="S224" s="18"/>
@@ -11816,10 +11808,10 @@
     </row>
     <row r="225" spans="1:20" ht="105.75" thickBot="1">
       <c r="A225" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C225" s="12" t="s">
         <v>50</v>
@@ -11831,38 +11823,38 @@
         <v>416</v>
       </c>
       <c r="F225" s="14">
-        <v>45046</v>
+        <v>45048</v>
       </c>
       <c r="G225" s="15" t="s">
         <v>544</v>
       </c>
       <c r="H225" s="15" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="I225" s="15" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="J225" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K225" s="16" t="s">
-        <v>542</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K225" s="16"/>
       <c r="L225" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M225" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N225" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O225" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O225" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P225" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q225" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R225" s="17"/>
       <c r="S225" s="18"/>
@@ -11870,12 +11862,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="120.75" thickBot="1">
+    <row r="226" spans="1:20" ht="105.75" thickBot="1">
       <c r="A226" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C226" s="12" t="s">
         <v>50</v>
@@ -11887,38 +11879,38 @@
         <v>418</v>
       </c>
       <c r="F226" s="14">
-        <v>45046</v>
+        <v>45048</v>
       </c>
       <c r="G226" s="15" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H226" s="15" t="s">
         <v>545</v>
       </c>
       <c r="I226" s="15" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="J226" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K226" s="16" t="s">
-        <v>547</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K226" s="16"/>
       <c r="L226" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M226" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N226" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O226" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O226" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P226" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q226" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R226" s="17"/>
       <c r="S226" s="18"/>
@@ -11928,10 +11920,10 @@
     </row>
     <row r="227" spans="1:20" ht="105.75" thickBot="1">
       <c r="A227" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C227" s="12" t="s">
         <v>50</v>
@@ -11946,35 +11938,35 @@
         <v>45048</v>
       </c>
       <c r="G227" s="15" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H227" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="I227" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="I227" s="15" t="s">
-        <v>550</v>
-      </c>
       <c r="J227" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K227" s="16" t="s">
-        <v>548</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K227" s="16"/>
       <c r="L227" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M227" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N227" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O227" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O227" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P227" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q227" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R227" s="17"/>
       <c r="S227" s="18"/>
@@ -11982,12 +11974,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="105.75" thickBot="1">
+    <row r="228" spans="1:20" ht="120.75" thickBot="1">
       <c r="A228" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C228" s="12" t="s">
         <v>50</v>
@@ -12002,35 +11994,35 @@
         <v>45048</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H228" s="15" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="I228" s="15" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="J228" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K228" s="16" t="s">
-        <v>560</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K228" s="16"/>
       <c r="L228" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M228" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N228" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O228" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O228" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P228" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q228" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R228" s="17"/>
       <c r="S228" s="18"/>
@@ -12040,10 +12032,10 @@
     </row>
     <row r="229" spans="1:20" ht="105.75" thickBot="1">
       <c r="A229" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C229" s="12" t="s">
         <v>50</v>
@@ -12058,35 +12050,35 @@
         <v>45048</v>
       </c>
       <c r="G229" s="15" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="H229" s="15" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="I229" s="15" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="J229" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="K229" s="16" t="s">
-        <v>568</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K229" s="16"/>
       <c r="L229" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M229" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N229" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O229" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O229" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P229" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q229" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R229" s="17"/>
       <c r="S229" s="18"/>
@@ -12094,12 +12086,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="120.75" thickBot="1">
+    <row r="230" spans="1:20" ht="105.75" thickBot="1">
       <c r="A230" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C230" s="12" t="s">
         <v>50</v>
@@ -12110,40 +12102,22 @@
       <c r="E230" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="F230" s="14">
-        <v>45048</v>
-      </c>
-      <c r="G230" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="H230" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="I230" s="15" t="s">
-        <v>566</v>
-      </c>
+      <c r="F230" s="14"/>
+      <c r="G230" s="15"/>
+      <c r="H230" s="15"/>
+      <c r="I230" s="15"/>
       <c r="J230" s="16" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="K230" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="L230" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="M230" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N230" s="16" t="s">
-        <v>524</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="L230" s="16"/>
+      <c r="M230" s="16"/>
+      <c r="N230" s="16"/>
       <c r="O230" s="16"/>
-      <c r="P230" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q230" s="16" t="s">
-        <v>499</v>
-      </c>
+      <c r="P230" s="16"/>
+      <c r="Q230" s="16"/>
       <c r="R230" s="17"/>
       <c r="S230" s="18"/>
       <c r="T230" s="19" t="s">
@@ -12152,10 +12126,10 @@
     </row>
     <row r="231" spans="1:20" ht="105.75" thickBot="1">
       <c r="A231" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C231" s="12" t="s">
         <v>50</v>
@@ -12166,52 +12140,34 @@
       <c r="E231" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="F231" s="14">
-        <v>45048</v>
-      </c>
-      <c r="G231" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="H231" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="I231" s="15" t="s">
-        <v>573</v>
-      </c>
+      <c r="F231" s="14"/>
+      <c r="G231" s="15"/>
+      <c r="H231" s="15"/>
+      <c r="I231" s="15"/>
       <c r="J231" s="16" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="K231" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="L231" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="M231" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N231" s="16" t="s">
-        <v>524</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="L231" s="16"/>
+      <c r="M231" s="16"/>
+      <c r="N231" s="16"/>
       <c r="O231" s="16"/>
-      <c r="P231" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q231" s="16" t="s">
-        <v>499</v>
-      </c>
+      <c r="P231" s="16"/>
+      <c r="Q231" s="16"/>
       <c r="R231" s="17"/>
       <c r="S231" s="18"/>
       <c r="T231" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="105.75" thickBot="1">
+    <row r="232" spans="1:20" ht="120.75" thickBot="1">
       <c r="A232" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C232" s="12" t="s">
         <v>50</v>
@@ -12222,20 +12178,42 @@
       <c r="E232" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="F232" s="14"/>
-      <c r="G232" s="15"/>
-      <c r="H232" s="15"/>
-      <c r="I232" s="15"/>
+      <c r="F232" s="14">
+        <v>45048</v>
+      </c>
+      <c r="G232" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="H232" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="I232" s="15" t="s">
+        <v>558</v>
+      </c>
       <c r="J232" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K232" s="16"/>
-      <c r="L232" s="16"/>
-      <c r="M232" s="16"/>
-      <c r="N232" s="16"/>
-      <c r="O232" s="16"/>
-      <c r="P232" s="16"/>
-      <c r="Q232" s="16"/>
+        <v>396</v>
+      </c>
+      <c r="K232" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="L232" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M232" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N232" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="O232" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P232" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q232" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="R232" s="17"/>
       <c r="S232" s="18"/>
       <c r="T232" s="19" t="s">
@@ -12244,10 +12222,10 @@
     </row>
     <row r="233" spans="1:20" ht="105.75" thickBot="1">
       <c r="A233" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C233" s="12" t="s">
         <v>50</v>
@@ -12263,9 +12241,11 @@
       <c r="H233" s="15"/>
       <c r="I233" s="15"/>
       <c r="J233" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K233" s="16"/>
+        <v>497</v>
+      </c>
+      <c r="K233" s="16" t="s">
+        <v>617</v>
+      </c>
       <c r="L233" s="16"/>
       <c r="M233" s="16"/>
       <c r="N233" s="16"/>
@@ -12278,12 +12258,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="120.75" thickBot="1">
+    <row r="234" spans="1:20" ht="105.75" thickBot="1">
       <c r="A234" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C234" s="12" t="s">
         <v>50</v>
@@ -12298,35 +12278,37 @@
         <v>45048</v>
       </c>
       <c r="G234" s="15" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="H234" s="15" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="I234" s="15" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="J234" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K234" s="16" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="L234" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M234" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N234" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O234" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O234" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P234" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q234" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R234" s="17"/>
       <c r="S234" s="18"/>
@@ -12336,10 +12318,10 @@
     </row>
     <row r="235" spans="1:20" ht="105.75" thickBot="1">
       <c r="A235" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C235" s="12" t="s">
         <v>50</v>
@@ -12350,32 +12332,54 @@
       <c r="E235" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="F235" s="14"/>
-      <c r="G235" s="15"/>
-      <c r="H235" s="15"/>
-      <c r="I235" s="15"/>
+      <c r="F235" s="14">
+        <v>45048</v>
+      </c>
+      <c r="G235" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="H235" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="I235" s="15" t="s">
+        <v>566</v>
+      </c>
       <c r="J235" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K235" s="16"/>
-      <c r="L235" s="16"/>
-      <c r="M235" s="16"/>
-      <c r="N235" s="16"/>
-      <c r="O235" s="16"/>
-      <c r="P235" s="16"/>
-      <c r="Q235" s="16"/>
+        <v>396</v>
+      </c>
+      <c r="K235" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="L235" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M235" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N235" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="O235" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P235" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q235" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="R235" s="17"/>
       <c r="S235" s="18"/>
       <c r="T235" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="105.75" thickBot="1">
+    <row r="236" spans="1:20" ht="120.75" thickBot="1">
       <c r="A236" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C236" s="12" t="s">
         <v>50</v>
@@ -12386,40 +12390,22 @@
       <c r="E236" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="F236" s="14">
-        <v>45048</v>
-      </c>
-      <c r="G236" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="H236" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="I236" s="15" t="s">
-        <v>580</v>
-      </c>
+      <c r="F236" s="14"/>
+      <c r="G236" s="15"/>
+      <c r="H236" s="15"/>
+      <c r="I236" s="15"/>
       <c r="J236" s="16" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="K236" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="L236" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="M236" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N236" s="16" t="s">
-        <v>524</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="L236" s="16"/>
+      <c r="M236" s="16"/>
+      <c r="N236" s="16"/>
       <c r="O236" s="16"/>
-      <c r="P236" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q236" s="16" t="s">
-        <v>499</v>
-      </c>
+      <c r="P236" s="16"/>
+      <c r="Q236" s="16"/>
       <c r="R236" s="17"/>
       <c r="S236" s="18"/>
       <c r="T236" s="19" t="s">
@@ -12428,10 +12414,10 @@
     </row>
     <row r="237" spans="1:20" ht="105.75" thickBot="1">
       <c r="A237" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C237" s="12" t="s">
         <v>50</v>
@@ -12446,35 +12432,37 @@
         <v>45048</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="H237" s="15" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="I237" s="15" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="J237" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K237" s="16" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="L237" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M237" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N237" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O237" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O237" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P237" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q237" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R237" s="17"/>
       <c r="S237" s="18"/>
@@ -12482,12 +12470,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="120.75" thickBot="1">
+    <row r="238" spans="1:20" ht="105.75" thickBot="1">
       <c r="A238" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C238" s="12" t="s">
         <v>50</v>
@@ -12498,20 +12486,42 @@
       <c r="E238" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="F238" s="14"/>
-      <c r="G238" s="15"/>
-      <c r="H238" s="15"/>
-      <c r="I238" s="15"/>
+      <c r="F238" s="14">
+        <v>45048</v>
+      </c>
+      <c r="G238" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="H238" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="I238" s="15" t="s">
+        <v>574</v>
+      </c>
       <c r="J238" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K238" s="16"/>
-      <c r="L238" s="16"/>
-      <c r="M238" s="16"/>
-      <c r="N238" s="16"/>
-      <c r="O238" s="16"/>
-      <c r="P238" s="16"/>
-      <c r="Q238" s="16"/>
+        <v>396</v>
+      </c>
+      <c r="K238" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="L238" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M238" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N238" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="O238" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P238" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q238" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="R238" s="17"/>
       <c r="S238" s="18"/>
       <c r="T238" s="19" t="s">
@@ -12520,10 +12530,10 @@
     </row>
     <row r="239" spans="1:20" ht="105.75" thickBot="1">
       <c r="A239" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C239" s="12" t="s">
         <v>50</v>
@@ -12538,35 +12548,37 @@
         <v>45048</v>
       </c>
       <c r="G239" s="15" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="H239" s="15" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="I239" s="15" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="J239" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K239" s="16" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="L239" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M239" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N239" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="O239" s="16"/>
+        <v>520</v>
+      </c>
+      <c r="O239" s="16" t="s">
+        <v>396</v>
+      </c>
       <c r="P239" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q239" s="16" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R239" s="17"/>
       <c r="S239" s="18"/>
@@ -12574,12 +12586,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="105.75" thickBot="1">
+    <row r="240" spans="1:20" ht="120.75" thickBot="1">
       <c r="A240" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C240" s="12" t="s">
         <v>50</v>
@@ -12590,52 +12602,34 @@
       <c r="E240" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="F240" s="14">
-        <v>45048</v>
-      </c>
-      <c r="G240" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="H240" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="I240" s="15" t="s">
-        <v>591</v>
-      </c>
+      <c r="F240" s="14"/>
+      <c r="G240" s="15"/>
+      <c r="H240" s="15"/>
+      <c r="I240" s="15"/>
       <c r="J240" s="16" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="K240" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="L240" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="M240" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N240" s="16" t="s">
-        <v>524</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="L240" s="16"/>
+      <c r="M240" s="16"/>
+      <c r="N240" s="16"/>
       <c r="O240" s="16"/>
-      <c r="P240" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q240" s="16" t="s">
-        <v>499</v>
-      </c>
+      <c r="P240" s="16"/>
+      <c r="Q240" s="16"/>
       <c r="R240" s="17"/>
       <c r="S240" s="18"/>
       <c r="T240" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="105.75" thickBot="1">
+    <row r="241" spans="1:20" ht="120">
       <c r="A241" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C241" s="12" t="s">
         <v>50</v>
@@ -12646,117 +12640,61 @@
       <c r="E241" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="F241" s="14">
-        <v>45048</v>
-      </c>
-      <c r="G241" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="H241" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="I241" s="15" t="s">
-        <v>595</v>
-      </c>
+      <c r="F241" s="14"/>
+      <c r="G241" s="15"/>
+      <c r="H241" s="15"/>
+      <c r="I241" s="15"/>
       <c r="J241" s="16" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="K241" s="16" t="s">
-        <v>597</v>
-      </c>
-      <c r="L241" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="M241" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="N241" s="16" t="s">
-        <v>524</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="L241" s="16"/>
+      <c r="M241" s="16"/>
+      <c r="N241" s="16"/>
       <c r="O241" s="16"/>
-      <c r="P241" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q241" s="16" t="s">
-        <v>499</v>
-      </c>
+      <c r="P241" s="16"/>
+      <c r="Q241" s="16"/>
       <c r="R241" s="17"/>
       <c r="S241" s="18"/>
       <c r="T241" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="120.75" thickBot="1">
-      <c r="A242" s="11">
-        <v>145</v>
-      </c>
-      <c r="B242" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="C242" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D242" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="E242" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="F242" s="14"/>
-      <c r="G242" s="15"/>
-      <c r="H242" s="15"/>
-      <c r="I242" s="15"/>
-      <c r="J242" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K242" s="16"/>
-      <c r="L242" s="16"/>
-      <c r="M242" s="16"/>
-      <c r="N242" s="16"/>
-      <c r="O242" s="16"/>
-      <c r="P242" s="16"/>
-      <c r="Q242" s="16"/>
-      <c r="R242" s="17"/>
-      <c r="S242" s="18"/>
-      <c r="T242" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="243" spans="1:20" ht="120">
-      <c r="A243" s="11">
-        <v>146</v>
-      </c>
-      <c r="B243" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="C243" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D243" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="E243" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="F243" s="14"/>
-      <c r="G243" s="15"/>
-      <c r="H243" s="15"/>
-      <c r="I243" s="15"/>
-      <c r="J243" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="K243" s="16"/>
-      <c r="L243" s="16"/>
-      <c r="M243" s="16"/>
-      <c r="N243" s="16"/>
-      <c r="O243" s="16"/>
-      <c r="P243" s="16"/>
-      <c r="Q243" s="16"/>
-      <c r="R243" s="17"/>
-      <c r="S243" s="18"/>
-      <c r="T243" s="19" t="s">
-        <v>29</v>
-      </c>
+    <row r="242" spans="1:20" ht="14.25" customHeight="1">
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="4"/>
+      <c r="K242" s="4"/>
+      <c r="L242" s="4"/>
+      <c r="M242" s="4"/>
+      <c r="N242" s="4"/>
+      <c r="O242" s="4"/>
+      <c r="P242" s="4"/>
+      <c r="Q242" s="4"/>
+      <c r="R242" s="5"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="6"/>
+    </row>
+    <row r="243" spans="1:20" ht="14.25" customHeight="1">
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="4"/>
+      <c r="K243" s="4"/>
+      <c r="L243" s="4"/>
+      <c r="M243" s="4"/>
+      <c r="N243" s="4"/>
+      <c r="O243" s="4"/>
+      <c r="P243" s="4"/>
+      <c r="Q243" s="4"/>
+      <c r="R243" s="5"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="6"/>
     </row>
     <row r="244" spans="1:20" ht="14.25" customHeight="1">
       <c r="F244" s="3"/>
@@ -22126,38 +22064,10 @@
       <c r="T794" s="6"/>
     </row>
     <row r="795" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F795" s="3"/>
-      <c r="G795" s="3"/>
-      <c r="H795" s="3"/>
-      <c r="I795" s="3"/>
-      <c r="J795" s="4"/>
-      <c r="K795" s="4"/>
-      <c r="L795" s="4"/>
-      <c r="M795" s="4"/>
-      <c r="N795" s="4"/>
-      <c r="O795" s="4"/>
-      <c r="P795" s="4"/>
-      <c r="Q795" s="4"/>
-      <c r="R795" s="5"/>
-      <c r="S795" s="1"/>
-      <c r="T795" s="6"/>
+      <c r="T795" s="4"/>
     </row>
     <row r="796" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F796" s="3"/>
-      <c r="G796" s="3"/>
-      <c r="H796" s="3"/>
-      <c r="I796" s="3"/>
-      <c r="J796" s="4"/>
-      <c r="K796" s="4"/>
-      <c r="L796" s="4"/>
-      <c r="M796" s="4"/>
-      <c r="N796" s="4"/>
-      <c r="O796" s="4"/>
-      <c r="P796" s="4"/>
-      <c r="Q796" s="4"/>
-      <c r="R796" s="5"/>
-      <c r="S796" s="1"/>
-      <c r="T796" s="6"/>
+      <c r="T796" s="4"/>
     </row>
     <row r="797" spans="6:20" ht="14.25" customHeight="1">
       <c r="T797" s="4"/>
@@ -22348,21 +22258,15 @@
     <row r="859" spans="20:20" ht="14.25" customHeight="1">
       <c r="T859" s="4"/>
     </row>
-    <row r="860" spans="20:20" ht="14.25" customHeight="1">
-      <c r="T860" s="4"/>
-    </row>
-    <row r="861" spans="20:20" ht="14.25" customHeight="1">
-      <c r="T861" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A9:T243" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A9:T241">
     <filterColumn colId="1">
       <filters>
         <filter val="VALIDAZIONE"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A187:T243">
-      <sortCondition ref="C9:C243"/>
+    <sortState ref="A207:T352">
+      <sortCondition ref="C9:C374"/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
@@ -22379,18 +22283,18 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J193:J243 O193:O243 L193:M243 O191 L191:M191 J191 L186:M189 O186:O189 J186:J189</xm:sqref>
+          <xm:sqref>J191:J241 O191:O241 L191:M241 O189 L189:M189 J189 L184:M187 O184:O187 J184:J187</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q193:Q243 Q191 Q186:Q189</xm:sqref>
+          <xm:sqref>Q191:Q241 Q189 Q184:Q187</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -22399,7 +22303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22421,18 +22325,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/S1#111SANTECXXXXX/santec_vendor/santec_ecaresuite/5.0.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111SANTECXXXXX/santec_vendor/santec_ecaresuite/5.0.0/report-checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FSE2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sorgenti\it-fse-accreditamento\GATEWAY\S1#111SANTECXXXXX\santec_vendor\santec_ecaresuite\5.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="612">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -2853,12 +2853,6 @@
     <t>2023-05-02T13:00:54Z</t>
   </si>
   <si>
-    <t>L'inserimento delle marche temporali relativi alle visite sono garantite dall'applicativo. Il test viene comunque effettuato simulando un'eccezione nel codice.</t>
-  </si>
-  <si>
-    <t>L'inserimento dei dati dell'operatore che effettua la dimissione è garantito dall'applicativo. Il test viene comunque effettuato simulando un'eccezione nel codice.</t>
-  </si>
-  <si>
     <t>5b7b974360bd3b49</t>
   </si>
   <si>
@@ -2874,9 +2868,6 @@
     <t>2.16.840.1.113883.2.9.2.30.4.4.492147354ac88d5a51e9e9de8b19845884e7fb51d47d9a18e62898eac220e0c0.3d892c0f4a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>L'inserimento dell'esito è garantito dall'applicativo. Il test viene comunque effettuato simulando un'eccezione nel codice.</t>
-  </si>
-  <si>
     <t>2023-05-02T13:10:42Z</t>
   </si>
   <si>
@@ -2889,18 +2880,12 @@
     <t>2023-05-02T13:16:38Z</t>
   </si>
   <si>
-    <t>La corretta codifica della modalità di trasporto è garantita dall'applicativo. Il test viene comunque effettuato simulando un'eccezione nel codice.</t>
-  </si>
-  <si>
     <t>b19ffc0aaf7b11ab</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.492147354ac88d5a51e9e9de8b19845884e7fb51d47d9a18e62898eac220e0c0.d05ed2c8fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>La corretta codifica dell'esito del triage è garantita dall'applicativo. Il test viene comunque effettuato simulando un'eccezione nel codice.</t>
-  </si>
-  <si>
     <t>2023-05-02T13:23:15Z</t>
   </si>
   <si>
@@ -2911,9 +2896,6 @@
   </si>
   <si>
     <t>2023-05-02T13:27:34Z</t>
-  </si>
-  <si>
-    <t>La corretta codifica della diagnosi di dimissione è garantita dall'applicativo. Il test viene comunque effettuato simulando un'eccezione nel codice.</t>
   </si>
   <si>
     <t>799db6f7ae3210c0</t>
@@ -3641,10 +3623,10 @@
   <dimension ref="A1:T859"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="C229" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="K239" sqref="K239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9834,10 +9816,10 @@
         <v>45096</v>
       </c>
       <c r="G184" s="15" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H184" s="15" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="I184" s="15" t="s">
         <v>509</v>
@@ -9890,10 +9872,10 @@
         <v>45096</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="H185" s="15" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="I185" s="15" t="s">
         <v>509</v>
@@ -9946,7 +9928,7 @@
         <v>45096</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="H186" s="15"/>
       <c r="I186" s="15"/>
@@ -10000,13 +9982,13 @@
         <v>45096</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I187" s="15" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J187" s="16" t="s">
         <v>396</v>
@@ -10050,7 +10032,7 @@
         <v>497</v>
       </c>
       <c r="K188" s="16" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L188" s="16"/>
       <c r="M188" s="16"/>
@@ -10088,7 +10070,7 @@
         <v>497</v>
       </c>
       <c r="K189" s="16" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L189" s="16"/>
       <c r="M189" s="16"/>
@@ -10126,7 +10108,7 @@
         <v>497</v>
       </c>
       <c r="K190" s="16" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L190" s="16"/>
       <c r="M190" s="16"/>
@@ -10160,13 +10142,13 @@
         <v>45096</v>
       </c>
       <c r="G191" s="15" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="H191" s="15" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="I191" s="15" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="J191" s="16" t="s">
         <v>396</v>
@@ -10216,13 +10198,13 @@
         <v>45096</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="H192" s="15" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="J192" s="16" t="s">
         <v>396</v>
@@ -10272,13 +10254,13 @@
         <v>45096</v>
       </c>
       <c r="G193" s="15" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="H193" s="15" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="I193" s="15" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="J193" s="16" t="s">
         <v>396</v>
@@ -10328,13 +10310,13 @@
         <v>45096</v>
       </c>
       <c r="G194" s="15" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H194" s="15" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="I194" s="15" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="J194" s="16" t="s">
         <v>396</v>
@@ -10384,13 +10366,13 @@
         <v>45096</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="H195" s="15" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="J195" s="16" t="s">
         <v>396</v>
@@ -10440,13 +10422,13 @@
         <v>45096</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H196" s="15" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="J196" s="16" t="s">
         <v>396</v>
@@ -10500,7 +10482,7 @@
         <v>497</v>
       </c>
       <c r="K197" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L197" s="16"/>
       <c r="M197" s="16"/>
@@ -10538,7 +10520,7 @@
         <v>497</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L198" s="16"/>
       <c r="M198" s="16"/>
@@ -10576,7 +10558,7 @@
         <v>497</v>
       </c>
       <c r="K199" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L199" s="16"/>
       <c r="M199" s="16"/>
@@ -10610,13 +10592,13 @@
         <v>45096</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H200" s="15" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="I200" s="15" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="J200" s="16" t="s">
         <v>396</v>
@@ -10666,13 +10648,13 @@
         <v>45096</v>
       </c>
       <c r="G201" s="15" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="I201" s="15" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="J201" s="16" t="s">
         <v>396</v>
@@ -10726,7 +10708,7 @@
         <v>497</v>
       </c>
       <c r="K202" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L202" s="16"/>
       <c r="M202" s="16"/>
@@ -10764,7 +10746,7 @@
         <v>497</v>
       </c>
       <c r="K203" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L203" s="16"/>
       <c r="M203" s="16"/>
@@ -10802,7 +10784,7 @@
         <v>497</v>
       </c>
       <c r="K204" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L204" s="16"/>
       <c r="M204" s="16"/>
@@ -10840,7 +10822,7 @@
         <v>497</v>
       </c>
       <c r="K205" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L205" s="16"/>
       <c r="M205" s="16"/>
@@ -10878,7 +10860,7 @@
         <v>497</v>
       </c>
       <c r="K206" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L206" s="16"/>
       <c r="M206" s="16"/>
@@ -10916,7 +10898,7 @@
         <v>497</v>
       </c>
       <c r="K207" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L207" s="16"/>
       <c r="M207" s="16"/>
@@ -10954,7 +10936,7 @@
         <v>497</v>
       </c>
       <c r="K208" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L208" s="16"/>
       <c r="M208" s="16"/>
@@ -10988,13 +10970,13 @@
         <v>45096</v>
       </c>
       <c r="G209" s="15" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="H209" s="15" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="I209" s="15" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="J209" s="16" t="s">
         <v>396</v>
@@ -11140,7 +11122,7 @@
         <v>497</v>
       </c>
       <c r="K212" s="16" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L212" s="16"/>
       <c r="M212" s="16"/>
@@ -11178,7 +11160,7 @@
         <v>497</v>
       </c>
       <c r="K213" s="16" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L213" s="16"/>
       <c r="M213" s="16"/>
@@ -12110,7 +12092,7 @@
         <v>497</v>
       </c>
       <c r="K230" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L230" s="16"/>
       <c r="M230" s="16"/>
@@ -12148,7 +12130,7 @@
         <v>497</v>
       </c>
       <c r="K231" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L231" s="16"/>
       <c r="M231" s="16"/>
@@ -12193,9 +12175,7 @@
       <c r="J232" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="K232" s="16" t="s">
-        <v>560</v>
-      </c>
+      <c r="K232" s="16"/>
       <c r="L232" s="16" t="s">
         <v>396</v>
       </c>
@@ -12244,7 +12224,7 @@
         <v>497</v>
       </c>
       <c r="K233" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L233" s="16"/>
       <c r="M233" s="16"/>
@@ -12278,20 +12258,18 @@
         <v>45048</v>
       </c>
       <c r="G234" s="15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H234" s="15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I234" s="15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J234" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="K234" s="16" t="s">
-        <v>561</v>
-      </c>
+      <c r="K234" s="16"/>
       <c r="L234" s="16" t="s">
         <v>396</v>
       </c>
@@ -12336,20 +12314,18 @@
         <v>45048</v>
       </c>
       <c r="G235" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H235" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I235" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J235" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="K235" s="16" t="s">
-        <v>567</v>
-      </c>
+      <c r="K235" s="16"/>
       <c r="L235" s="16" t="s">
         <v>396</v>
       </c>
@@ -12398,7 +12374,7 @@
         <v>497</v>
       </c>
       <c r="K236" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L236" s="16"/>
       <c r="M236" s="16"/>
@@ -12432,20 +12408,18 @@
         <v>45048</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H237" s="15" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I237" s="15" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J237" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="K237" s="16" t="s">
-        <v>572</v>
-      </c>
+      <c r="K237" s="16"/>
       <c r="L237" s="16" t="s">
         <v>396</v>
       </c>
@@ -12490,20 +12464,18 @@
         <v>45048</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H238" s="15" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I238" s="15" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J238" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="K238" s="16" t="s">
-        <v>575</v>
-      </c>
+      <c r="K238" s="16"/>
       <c r="L238" s="16" t="s">
         <v>396</v>
       </c>
@@ -12548,20 +12520,18 @@
         <v>45048</v>
       </c>
       <c r="G239" s="15" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H239" s="15" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I239" s="15" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="J239" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="K239" s="16" t="s">
-        <v>580</v>
-      </c>
+      <c r="K239" s="16"/>
       <c r="L239" s="16" t="s">
         <v>396</v>
       </c>
@@ -12610,7 +12580,7 @@
         <v>497</v>
       </c>
       <c r="K240" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L240" s="16"/>
       <c r="M240" s="16"/>
@@ -12648,7 +12618,7 @@
         <v>497</v>
       </c>
       <c r="K241" s="16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L241" s="16"/>
       <c r="M241" s="16"/>

--- a/GATEWAY/S1#111SANTECXXXXX/santec_vendor/santec_ecaresuite/5.0.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111SANTECXXXXX/santec_vendor/santec_ecaresuite/5.0.0/report-checklist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sorgenti\it-fse-accreditamento\GATEWAY\S1#111SANTECXXXXX\santec_vendor\santec_ecaresuite\5.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sorgenti\it-fse-accreditamento\GATEWAY\S1#111SANTECXXXXX\santec_vendor\santec_ecaresuite\5.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B95CBCC-4B2B-448A-A6F4-1792B49E0587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="150" windowWidth="35835" windowHeight="19005"/>
+    <workbookView xWindow="1380" yWindow="4410" windowWidth="43830" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="672">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -2688,15 +2689,6 @@
     <t>2023-04-29T20:34:40Z</t>
   </si>
   <si>
-    <t>6740f196bcfbe753</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.492147354ac88d5a51e9e9de8b19845884e7fb51d47d9a18e62898eac220e0c0.ac3720b80a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-04-30T00:08:02Z</t>
-  </si>
-  <si>
     <t>03f3677a849edff5</t>
   </si>
   <si>
@@ -3007,12 +2999,233 @@
   </si>
   <si>
     <t>Le sezioni di CDA2 presenti nel test case non vengono gestite da applicativo</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-10-02T14:07:14Z</t>
+  </si>
+  <si>
+    <t>59cba27a214c4915</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.a6e975b8c0a216bbe459bb3e549c8a9208524814ec3b1c552f33939ae03f642b.93d93aee24^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
+  </si>
+  <si>
+    <t>2023-10-02T14:25:03Z</t>
+  </si>
+  <si>
+    <t>492869e52f88a3c7</t>
+  </si>
+  <si>
+    <t>Il gateway di validazione FSE2.0 non è accessibile. Contattare l'amministratore di sistema.</t>
+  </si>
+  <si>
+    <t>L'amministratore di sistema ha la possibilita di modificare la configurazione in base alle informazioni di dettaglio contenute nei log</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
+  </si>
+  <si>
+    <t>2023-10-02T14:29:42Z</t>
+  </si>
+  <si>
+    <t>9fcaf1057c62bd47</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_LDO_TIMEOUT</t>
+  </si>
+  <si>
+    <t>Il gateway di validazione FSE2.0 non è raggiungibile, riprovare più tardi</t>
+  </si>
+  <si>
+    <t>L'evento di timeout viene registrato nei log a disposizione dell'amministratore di sistema che può controllare eventuali problemi di connettività</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-10-02T14:48:15Z</t>
+  </si>
+  <si>
+    <t>180c09316abfb18a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.a6e975b8c0a216bbe459bb3e549c8a9208524814ec3b1c552f33939ae03f642b.75dc76ba8c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-10-02T14:57:03Z</t>
+  </si>
+  <si>
+    <t>1b88cf91122fb284</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.a6e975b8c0a216bbe459bb3e549c8a9208524814ec3b1c552f33939ae03f642b.bd6b7f36da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-10-02T15:06:26Z</t>
+  </si>
+  <si>
+    <t>ed0ccc07fab6f8c1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.a6e975b8c0a216bbe459bb3e549c8a9208524814ec3b1c552f33939ae03f642b.93d1baadfa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il gateway di validazione FSE 2.0 ha riscontrato un livello di confidenzialità  del documento non corretto.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>L'errore viene prevenuto dalla logica interna dell'applicativo che non permette l'inserimento di anagrafiche dei pazienti senza il comune di residenza.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>L'errore viene prevenuto dalla logica interna dell'applicativo che non permette l'inserimento di anagrafiche dei pazienti non anonimi senza il nome.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>L'errore viene prevenuto dalla logica interna dell'applicativo che non permette l'inserimento di anagrafiche dei pazienti con sesso diverso da "maschio", "femmina" e "indifferenziato"</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>L'errore viene prevenuto dalla logica interna dell'applicativo che non permette l'inserimento di un lettera di dimissione senza la determinazione di almeno una diagnosi di dimissione.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>L'errore viene prevenuto dalla logica interna dell'applicativo che non permette l'inserimento di un lettera di dimissione senza un testo relativo al decorso ospedaliero.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>L'applicativo non gestisce i tag  CDA2 relativi al test.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>L'errore viene prevenuto dalla logica interna dell'applicativo che non permette l'inserimento di una diagnosi di ingresso non codificata icd9cm.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -3381,12 +3594,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -3404,18 +3617,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:A3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:A3">
   <tableColumns count="1">
-    <tableColumn id="1" name="ESITO"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ESITO"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_2" displayName="Table_2" ref="B1:B3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="B1:B3">
   <tableColumns count="1">
-    <tableColumn id="1" name="APPLICABILITA'"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="APPLICABILITA'"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3618,15 +3831,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T859"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="C229" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B238" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K239" sqref="K239"/>
+      <selection pane="bottomRight" activeCell="L211" sqref="L211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9816,13 +10029,13 @@
         <v>45096</v>
       </c>
       <c r="G184" s="15" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H184" s="15" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I184" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J184" s="16" t="s">
         <v>396</v>
@@ -9835,13 +10048,13 @@
         <v>396</v>
       </c>
       <c r="N184" s="16" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="O184" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P184" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q184" s="16" t="s">
         <v>495</v>
@@ -9872,13 +10085,13 @@
         <v>45096</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H185" s="15" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I185" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J185" s="16" t="s">
         <v>396</v>
@@ -9891,13 +10104,13 @@
         <v>396</v>
       </c>
       <c r="N185" s="16" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="O185" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P185" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q185" s="16" t="s">
         <v>495</v>
@@ -9928,7 +10141,7 @@
         <v>45096</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H186" s="15"/>
       <c r="I186" s="15"/>
@@ -9943,13 +10156,13 @@
         <v>396</v>
       </c>
       <c r="N186" s="16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="O186" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P186" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Q186" s="16" t="s">
         <v>495</v>
@@ -9982,13 +10195,13 @@
         <v>45096</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I187" s="15" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J187" s="16" t="s">
         <v>396</v>
@@ -10032,7 +10245,7 @@
         <v>497</v>
       </c>
       <c r="K188" s="16" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L188" s="16"/>
       <c r="M188" s="16"/>
@@ -10070,7 +10283,7 @@
         <v>497</v>
       </c>
       <c r="K189" s="16" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L189" s="16"/>
       <c r="M189" s="16"/>
@@ -10108,7 +10321,7 @@
         <v>497</v>
       </c>
       <c r="K190" s="16" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L190" s="16"/>
       <c r="M190" s="16"/>
@@ -10142,13 +10355,13 @@
         <v>45096</v>
       </c>
       <c r="G191" s="15" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H191" s="15" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I191" s="15" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J191" s="16" t="s">
         <v>396</v>
@@ -10161,13 +10374,13 @@
         <v>396</v>
       </c>
       <c r="N191" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O191" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P191" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q191" s="16" t="s">
         <v>495</v>
@@ -10198,13 +10411,13 @@
         <v>45096</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H192" s="15" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="J192" s="16" t="s">
         <v>396</v>
@@ -10217,13 +10430,13 @@
         <v>396</v>
       </c>
       <c r="N192" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O192" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P192" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q192" s="16" t="s">
         <v>495</v>
@@ -10254,13 +10467,13 @@
         <v>45096</v>
       </c>
       <c r="G193" s="15" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H193" s="15" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I193" s="15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="J193" s="16" t="s">
         <v>396</v>
@@ -10273,13 +10486,13 @@
         <v>396</v>
       </c>
       <c r="N193" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O193" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P193" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q193" s="16" t="s">
         <v>495</v>
@@ -10310,13 +10523,13 @@
         <v>45096</v>
       </c>
       <c r="G194" s="15" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H194" s="15" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I194" s="15" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="J194" s="16" t="s">
         <v>396</v>
@@ -10329,13 +10542,13 @@
         <v>396</v>
       </c>
       <c r="N194" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O194" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P194" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q194" s="16" t="s">
         <v>495</v>
@@ -10366,13 +10579,13 @@
         <v>45096</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H195" s="15" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="J195" s="16" t="s">
         <v>396</v>
@@ -10385,13 +10598,13 @@
         <v>396</v>
       </c>
       <c r="N195" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O195" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P195" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q195" s="16" t="s">
         <v>495</v>
@@ -10422,13 +10635,13 @@
         <v>45096</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H196" s="15" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J196" s="16" t="s">
         <v>396</v>
@@ -10441,13 +10654,13 @@
         <v>396</v>
       </c>
       <c r="N196" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O196" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P196" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q196" s="16" t="s">
         <v>495</v>
@@ -10482,7 +10695,7 @@
         <v>497</v>
       </c>
       <c r="K197" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L197" s="16"/>
       <c r="M197" s="16"/>
@@ -10520,7 +10733,7 @@
         <v>497</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L198" s="16"/>
       <c r="M198" s="16"/>
@@ -10558,7 +10771,7 @@
         <v>497</v>
       </c>
       <c r="K199" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L199" s="16"/>
       <c r="M199" s="16"/>
@@ -10592,13 +10805,13 @@
         <v>45096</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H200" s="15" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I200" s="15" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J200" s="16" t="s">
         <v>396</v>
@@ -10611,13 +10824,13 @@
         <v>396</v>
       </c>
       <c r="N200" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O200" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P200" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q200" s="16" t="s">
         <v>495</v>
@@ -10648,13 +10861,13 @@
         <v>45096</v>
       </c>
       <c r="G201" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I201" s="15" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J201" s="16" t="s">
         <v>396</v>
@@ -10667,13 +10880,13 @@
         <v>396</v>
       </c>
       <c r="N201" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O201" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P201" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q201" s="16" t="s">
         <v>495</v>
@@ -10708,7 +10921,7 @@
         <v>497</v>
       </c>
       <c r="K202" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L202" s="16"/>
       <c r="M202" s="16"/>
@@ -10746,7 +10959,7 @@
         <v>497</v>
       </c>
       <c r="K203" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L203" s="16"/>
       <c r="M203" s="16"/>
@@ -10784,7 +10997,7 @@
         <v>497</v>
       </c>
       <c r="K204" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L204" s="16"/>
       <c r="M204" s="16"/>
@@ -10822,7 +11035,7 @@
         <v>497</v>
       </c>
       <c r="K205" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L205" s="16"/>
       <c r="M205" s="16"/>
@@ -10860,7 +11073,7 @@
         <v>497</v>
       </c>
       <c r="K206" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L206" s="16"/>
       <c r="M206" s="16"/>
@@ -10898,7 +11111,7 @@
         <v>497</v>
       </c>
       <c r="K207" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L207" s="16"/>
       <c r="M207" s="16"/>
@@ -10936,7 +11149,7 @@
         <v>497</v>
       </c>
       <c r="K208" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L208" s="16"/>
       <c r="M208" s="16"/>
@@ -10970,13 +11183,13 @@
         <v>45096</v>
       </c>
       <c r="G209" s="15" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H209" s="15" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I209" s="15" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="J209" s="16" t="s">
         <v>396</v>
@@ -10989,13 +11202,13 @@
         <v>396</v>
       </c>
       <c r="N209" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O209" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P209" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q209" s="16" t="s">
         <v>495</v>
@@ -11068,30 +11281,22 @@
       <c r="E211" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="F211" s="14">
-        <v>45046</v>
-      </c>
-      <c r="G211" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="H211" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="I211" s="15" t="s">
-        <v>506</v>
-      </c>
+      <c r="F211" s="14"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
+      <c r="I211" s="15"/>
       <c r="J211" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="K211" s="16"/>
+        <v>497</v>
+      </c>
+      <c r="K211" s="16" t="s">
+        <v>576</v>
+      </c>
       <c r="L211" s="16"/>
       <c r="M211" s="16"/>
       <c r="N211" s="16"/>
       <c r="O211" s="16"/>
       <c r="P211" s="16"/>
-      <c r="Q211" s="16" t="s">
-        <v>495</v>
-      </c>
+      <c r="Q211" s="16"/>
       <c r="R211" s="17"/>
       <c r="S211" s="18"/>
       <c r="T211" s="19" t="s">
@@ -11122,7 +11327,7 @@
         <v>497</v>
       </c>
       <c r="K212" s="16" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L212" s="16"/>
       <c r="M212" s="16"/>
@@ -11160,7 +11365,7 @@
         <v>497</v>
       </c>
       <c r="K213" s="16" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L213" s="16"/>
       <c r="M213" s="16"/>
@@ -11194,13 +11399,13 @@
         <v>45046</v>
       </c>
       <c r="G214" s="15" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H214" s="15" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I214" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J214" s="16" t="s">
         <v>396</v>
@@ -11213,13 +11418,13 @@
         <v>396</v>
       </c>
       <c r="N214" s="16" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="O214" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P214" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q214" s="16" t="s">
         <v>495</v>
@@ -11250,13 +11455,13 @@
         <v>45046</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H215" s="15" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I215" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J215" s="16" t="s">
         <v>396</v>
@@ -11269,13 +11474,13 @@
         <v>396</v>
       </c>
       <c r="N215" s="16" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="O215" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P215" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q215" s="16" t="s">
         <v>495</v>
@@ -11306,7 +11511,7 @@
         <v>45046</v>
       </c>
       <c r="G216" s="15" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H216" s="15"/>
       <c r="I216" s="15"/>
@@ -11321,13 +11526,13 @@
         <v>396</v>
       </c>
       <c r="N216" s="16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="O216" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P216" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Q216" s="16" t="s">
         <v>495</v>
@@ -11360,13 +11565,13 @@
         <v>45046</v>
       </c>
       <c r="G217" s="15" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H217" s="15" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I217" s="15" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J217" s="16" t="s">
         <v>396</v>
@@ -11379,13 +11584,13 @@
         <v>396</v>
       </c>
       <c r="N217" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O217" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P217" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q217" s="16" t="s">
         <v>495</v>
@@ -11416,13 +11621,13 @@
         <v>45046</v>
       </c>
       <c r="G218" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H218" s="15" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I218" s="15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J218" s="16" t="s">
         <v>396</v>
@@ -11435,13 +11640,13 @@
         <v>396</v>
       </c>
       <c r="N218" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O218" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P218" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q218" s="16" t="s">
         <v>495</v>
@@ -11472,13 +11677,13 @@
         <v>45046</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H219" s="15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I219" s="15" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J219" s="16" t="s">
         <v>396</v>
@@ -11491,13 +11696,13 @@
         <v>396</v>
       </c>
       <c r="N219" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O219" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P219" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q219" s="16" t="s">
         <v>495</v>
@@ -11528,13 +11733,13 @@
         <v>45046</v>
       </c>
       <c r="G220" s="15" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H220" s="15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I220" s="15" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J220" s="16" t="s">
         <v>396</v>
@@ -11547,13 +11752,13 @@
         <v>396</v>
       </c>
       <c r="N220" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O220" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P220" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q220" s="16" t="s">
         <v>495</v>
@@ -11584,13 +11789,13 @@
         <v>45046</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H221" s="15" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I221" s="15" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J221" s="16" t="s">
         <v>396</v>
@@ -11603,13 +11808,13 @@
         <v>396</v>
       </c>
       <c r="N221" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O221" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P221" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q221" s="16" t="s">
         <v>495</v>
@@ -11640,13 +11845,13 @@
         <v>45046</v>
       </c>
       <c r="G222" s="15" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H222" s="15" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I222" s="15" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J222" s="16" t="s">
         <v>396</v>
@@ -11659,13 +11864,13 @@
         <v>396</v>
       </c>
       <c r="N222" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O222" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P222" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q222" s="16" t="s">
         <v>495</v>
@@ -11696,13 +11901,13 @@
         <v>45046</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H223" s="15" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I223" s="15" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J223" s="16" t="s">
         <v>396</v>
@@ -11715,13 +11920,13 @@
         <v>396</v>
       </c>
       <c r="N223" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O223" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P223" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q223" s="16" t="s">
         <v>495</v>
@@ -11752,13 +11957,13 @@
         <v>45046</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H224" s="15" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I224" s="15" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J224" s="16" t="s">
         <v>396</v>
@@ -11771,13 +11976,13 @@
         <v>396</v>
       </c>
       <c r="N224" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O224" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P224" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q224" s="16" t="s">
         <v>495</v>
@@ -11808,13 +12013,13 @@
         <v>45048</v>
       </c>
       <c r="G225" s="15" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H225" s="15" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I225" s="15" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J225" s="16" t="s">
         <v>396</v>
@@ -11827,13 +12032,13 @@
         <v>396</v>
       </c>
       <c r="N225" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O225" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P225" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q225" s="16" t="s">
         <v>495</v>
@@ -11864,13 +12069,13 @@
         <v>45048</v>
       </c>
       <c r="G226" s="15" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H226" s="15" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I226" s="15" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J226" s="16" t="s">
         <v>396</v>
@@ -11883,13 +12088,13 @@
         <v>396</v>
       </c>
       <c r="N226" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O226" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P226" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q226" s="16" t="s">
         <v>495</v>
@@ -11920,13 +12125,13 @@
         <v>45048</v>
       </c>
       <c r="G227" s="15" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H227" s="15" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I227" s="15" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J227" s="16" t="s">
         <v>396</v>
@@ -11939,13 +12144,13 @@
         <v>396</v>
       </c>
       <c r="N227" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O227" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P227" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q227" s="16" t="s">
         <v>495</v>
@@ -11976,13 +12181,13 @@
         <v>45048</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H228" s="15" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I228" s="15" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J228" s="16" t="s">
         <v>396</v>
@@ -11995,13 +12200,13 @@
         <v>396</v>
       </c>
       <c r="N228" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O228" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P228" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q228" s="16" t="s">
         <v>495</v>
@@ -12032,13 +12237,13 @@
         <v>45048</v>
       </c>
       <c r="G229" s="15" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H229" s="15" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I229" s="15" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J229" s="16" t="s">
         <v>396</v>
@@ -12051,13 +12256,13 @@
         <v>396</v>
       </c>
       <c r="N229" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O229" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P229" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q229" s="16" t="s">
         <v>495</v>
@@ -12092,7 +12297,7 @@
         <v>497</v>
       </c>
       <c r="K230" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L230" s="16"/>
       <c r="M230" s="16"/>
@@ -12130,7 +12335,7 @@
         <v>497</v>
       </c>
       <c r="K231" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L231" s="16"/>
       <c r="M231" s="16"/>
@@ -12164,13 +12369,13 @@
         <v>45048</v>
       </c>
       <c r="G232" s="15" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H232" s="15" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I232" s="15" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J232" s="16" t="s">
         <v>396</v>
@@ -12183,13 +12388,13 @@
         <v>396</v>
       </c>
       <c r="N232" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O232" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P232" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q232" s="16" t="s">
         <v>495</v>
@@ -12224,7 +12429,7 @@
         <v>497</v>
       </c>
       <c r="K233" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L233" s="16"/>
       <c r="M233" s="16"/>
@@ -12258,13 +12463,13 @@
         <v>45048</v>
       </c>
       <c r="G234" s="15" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H234" s="15" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I234" s="15" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J234" s="16" t="s">
         <v>396</v>
@@ -12277,13 +12482,13 @@
         <v>396</v>
       </c>
       <c r="N234" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O234" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P234" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q234" s="16" t="s">
         <v>495</v>
@@ -12314,13 +12519,13 @@
         <v>45048</v>
       </c>
       <c r="G235" s="15" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H235" s="15" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I235" s="15" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J235" s="16" t="s">
         <v>396</v>
@@ -12333,13 +12538,13 @@
         <v>396</v>
       </c>
       <c r="N235" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O235" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P235" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q235" s="16" t="s">
         <v>495</v>
@@ -12374,7 +12579,7 @@
         <v>497</v>
       </c>
       <c r="K236" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L236" s="16"/>
       <c r="M236" s="16"/>
@@ -12408,13 +12613,13 @@
         <v>45048</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H237" s="15" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I237" s="15" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="J237" s="16" t="s">
         <v>396</v>
@@ -12427,13 +12632,13 @@
         <v>396</v>
       </c>
       <c r="N237" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O237" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P237" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q237" s="16" t="s">
         <v>495</v>
@@ -12464,13 +12669,13 @@
         <v>45048</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H238" s="15" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I238" s="15" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J238" s="16" t="s">
         <v>396</v>
@@ -12483,13 +12688,13 @@
         <v>396</v>
       </c>
       <c r="N238" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O238" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P238" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q238" s="16" t="s">
         <v>495</v>
@@ -12520,13 +12725,13 @@
         <v>45048</v>
       </c>
       <c r="G239" s="15" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H239" s="15" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I239" s="15" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J239" s="16" t="s">
         <v>396</v>
@@ -12539,13 +12744,13 @@
         <v>396</v>
       </c>
       <c r="N239" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O239" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P239" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q239" s="16" t="s">
         <v>495</v>
@@ -12580,7 +12785,7 @@
         <v>497</v>
       </c>
       <c r="K240" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L240" s="16"/>
       <c r="M240" s="16"/>
@@ -12594,7 +12799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="120">
+    <row r="241" spans="1:20" ht="120.75" thickBot="1">
       <c r="A241" s="11">
         <v>146</v>
       </c>
@@ -12618,7 +12823,7 @@
         <v>497</v>
       </c>
       <c r="K241" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L241" s="16"/>
       <c r="M241" s="16"/>
@@ -12632,330 +12837,843 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
-      <c r="I242" s="3"/>
-      <c r="J242" s="4"/>
-      <c r="K242" s="4"/>
-      <c r="L242" s="4"/>
-      <c r="M242" s="4"/>
-      <c r="N242" s="4"/>
-      <c r="O242" s="4"/>
-      <c r="P242" s="4"/>
-      <c r="Q242" s="4"/>
-      <c r="R242" s="5"/>
-      <c r="S242" s="1"/>
-      <c r="T242" s="6"/>
-    </row>
-    <row r="243" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
-      <c r="J243" s="4"/>
-      <c r="K243" s="4"/>
-      <c r="L243" s="4"/>
-      <c r="M243" s="4"/>
-      <c r="N243" s="4"/>
-      <c r="O243" s="4"/>
-      <c r="P243" s="4"/>
-      <c r="Q243" s="4"/>
-      <c r="R243" s="5"/>
-      <c r="S243" s="1"/>
-      <c r="T243" s="6"/>
-    </row>
-    <row r="244" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
-      <c r="J244" s="4"/>
-      <c r="K244" s="4"/>
-      <c r="L244" s="4"/>
-      <c r="M244" s="4"/>
-      <c r="N244" s="4"/>
-      <c r="O244" s="4"/>
-      <c r="P244" s="4"/>
-      <c r="Q244" s="4"/>
-      <c r="R244" s="5"/>
-      <c r="S244" s="1"/>
-      <c r="T244" s="6"/>
-    </row>
-    <row r="245" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
-      <c r="I245" s="3"/>
-      <c r="J245" s="4"/>
-      <c r="K245" s="4"/>
-      <c r="L245" s="4"/>
-      <c r="M245" s="4"/>
-      <c r="N245" s="4"/>
-      <c r="O245" s="4"/>
-      <c r="P245" s="4"/>
-      <c r="Q245" s="4"/>
-      <c r="R245" s="5"/>
-      <c r="S245" s="1"/>
-      <c r="T245" s="6"/>
-    </row>
-    <row r="246" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
-      <c r="J246" s="4"/>
-      <c r="K246" s="4"/>
-      <c r="L246" s="4"/>
-      <c r="M246" s="4"/>
-      <c r="N246" s="4"/>
-      <c r="O246" s="4"/>
-      <c r="P246" s="4"/>
-      <c r="Q246" s="4"/>
-      <c r="R246" s="5"/>
-      <c r="S246" s="1"/>
-      <c r="T246" s="6"/>
-    </row>
-    <row r="247" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
-      <c r="J247" s="4"/>
-      <c r="K247" s="4"/>
-      <c r="L247" s="4"/>
-      <c r="M247" s="4"/>
-      <c r="N247" s="4"/>
-      <c r="O247" s="4"/>
-      <c r="P247" s="4"/>
-      <c r="Q247" s="4"/>
-      <c r="R247" s="5"/>
-      <c r="S247" s="1"/>
-      <c r="T247" s="6"/>
-    </row>
-    <row r="248" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
-      <c r="I248" s="3"/>
-      <c r="J248" s="4"/>
-      <c r="K248" s="4"/>
-      <c r="L248" s="4"/>
-      <c r="M248" s="4"/>
-      <c r="N248" s="4"/>
-      <c r="O248" s="4"/>
-      <c r="P248" s="4"/>
-      <c r="Q248" s="4"/>
-      <c r="R248" s="5"/>
-      <c r="S248" s="1"/>
-      <c r="T248" s="6"/>
-    </row>
-    <row r="249" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
-      <c r="J249" s="4"/>
-      <c r="K249" s="4"/>
-      <c r="L249" s="4"/>
-      <c r="M249" s="4"/>
-      <c r="N249" s="4"/>
-      <c r="O249" s="4"/>
-      <c r="P249" s="4"/>
-      <c r="Q249" s="4"/>
-      <c r="R249" s="5"/>
-      <c r="S249" s="1"/>
-      <c r="T249" s="6"/>
-    </row>
-    <row r="250" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F250" s="3"/>
-      <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
-      <c r="I250" s="3"/>
-      <c r="J250" s="4"/>
-      <c r="K250" s="4"/>
-      <c r="L250" s="4"/>
-      <c r="M250" s="4"/>
-      <c r="N250" s="4"/>
-      <c r="O250" s="4"/>
-      <c r="P250" s="4"/>
-      <c r="Q250" s="4"/>
-      <c r="R250" s="5"/>
-      <c r="S250" s="1"/>
-      <c r="T250" s="6"/>
-    </row>
-    <row r="251" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F251" s="3"/>
-      <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="4"/>
-      <c r="K251" s="4"/>
-      <c r="L251" s="4"/>
-      <c r="M251" s="4"/>
-      <c r="N251" s="4"/>
-      <c r="O251" s="4"/>
-      <c r="P251" s="4"/>
-      <c r="Q251" s="4"/>
-      <c r="R251" s="5"/>
-      <c r="S251" s="1"/>
-      <c r="T251" s="6"/>
-    </row>
-    <row r="252" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
-      <c r="I252" s="3"/>
-      <c r="J252" s="4"/>
-      <c r="K252" s="4"/>
-      <c r="L252" s="4"/>
-      <c r="M252" s="4"/>
-      <c r="N252" s="4"/>
-      <c r="O252" s="4"/>
-      <c r="P252" s="4"/>
-      <c r="Q252" s="4"/>
-      <c r="R252" s="5"/>
-      <c r="S252" s="1"/>
-      <c r="T252" s="6"/>
-    </row>
-    <row r="253" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
-      <c r="J253" s="4"/>
-      <c r="K253" s="4"/>
-      <c r="L253" s="4"/>
-      <c r="M253" s="4"/>
-      <c r="N253" s="4"/>
-      <c r="O253" s="4"/>
-      <c r="P253" s="4"/>
-      <c r="Q253" s="4"/>
-      <c r="R253" s="5"/>
-      <c r="S253" s="1"/>
-      <c r="T253" s="6"/>
-    </row>
-    <row r="254" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
-      <c r="I254" s="3"/>
-      <c r="J254" s="4"/>
-      <c r="K254" s="4"/>
-      <c r="L254" s="4"/>
-      <c r="M254" s="4"/>
-      <c r="N254" s="4"/>
-      <c r="O254" s="4"/>
-      <c r="P254" s="4"/>
-      <c r="Q254" s="4"/>
-      <c r="R254" s="5"/>
-      <c r="S254" s="1"/>
-      <c r="T254" s="6"/>
-    </row>
-    <row r="255" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F255" s="3"/>
-      <c r="G255" s="3"/>
-      <c r="H255" s="3"/>
-      <c r="I255" s="3"/>
-      <c r="J255" s="4"/>
-      <c r="K255" s="4"/>
-      <c r="L255" s="4"/>
-      <c r="M255" s="4"/>
-      <c r="N255" s="4"/>
-      <c r="O255" s="4"/>
-      <c r="P255" s="4"/>
-      <c r="Q255" s="4"/>
-      <c r="R255" s="5"/>
-      <c r="S255" s="1"/>
-      <c r="T255" s="6"/>
-    </row>
-    <row r="256" spans="1:20" ht="14.25" customHeight="1">
-      <c r="F256" s="3"/>
-      <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
-      <c r="I256" s="3"/>
-      <c r="J256" s="4"/>
-      <c r="K256" s="4"/>
-      <c r="L256" s="4"/>
-      <c r="M256" s="4"/>
-      <c r="N256" s="4"/>
-      <c r="O256" s="4"/>
-      <c r="P256" s="4"/>
-      <c r="Q256" s="4"/>
-      <c r="R256" s="5"/>
-      <c r="S256" s="1"/>
-      <c r="T256" s="6"/>
-    </row>
-    <row r="257" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
-      <c r="I257" s="3"/>
-      <c r="J257" s="4"/>
-      <c r="K257" s="4"/>
-      <c r="L257" s="4"/>
-      <c r="M257" s="4"/>
-      <c r="N257" s="4"/>
-      <c r="O257" s="4"/>
-      <c r="P257" s="4"/>
-      <c r="Q257" s="4"/>
-      <c r="R257" s="5"/>
-      <c r="S257" s="1"/>
-      <c r="T257" s="6"/>
-    </row>
-    <row r="258" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F258" s="3"/>
-      <c r="G258" s="3"/>
-      <c r="H258" s="3"/>
-      <c r="I258" s="3"/>
-      <c r="J258" s="4"/>
-      <c r="K258" s="4"/>
-      <c r="L258" s="4"/>
-      <c r="M258" s="4"/>
-      <c r="N258" s="4"/>
-      <c r="O258" s="4"/>
-      <c r="P258" s="4"/>
-      <c r="Q258" s="4"/>
-      <c r="R258" s="5"/>
-      <c r="S258" s="1"/>
-      <c r="T258" s="6"/>
-    </row>
-    <row r="259" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F259" s="3"/>
-      <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
-      <c r="I259" s="3"/>
-      <c r="J259" s="4"/>
-      <c r="K259" s="4"/>
-      <c r="L259" s="4"/>
-      <c r="M259" s="4"/>
-      <c r="N259" s="4"/>
-      <c r="O259" s="4"/>
-      <c r="P259" s="4"/>
-      <c r="Q259" s="4"/>
-      <c r="R259" s="5"/>
-      <c r="S259" s="1"/>
-      <c r="T259" s="6"/>
-    </row>
-    <row r="260" spans="6:20" ht="14.25" customHeight="1">
-      <c r="F260" s="3"/>
-      <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
-      <c r="I260" s="3"/>
-      <c r="J260" s="4"/>
-      <c r="K260" s="4"/>
-      <c r="L260" s="4"/>
-      <c r="M260" s="4"/>
-      <c r="N260" s="4"/>
-      <c r="O260" s="4"/>
-      <c r="P260" s="4"/>
-      <c r="Q260" s="4"/>
-      <c r="R260" s="5"/>
-      <c r="S260" s="1"/>
-      <c r="T260" s="6"/>
-    </row>
-    <row r="261" spans="6:20" ht="14.25" customHeight="1">
+    <row r="242" spans="1:20" ht="150.75" thickBot="1">
+      <c r="A242" s="11">
+        <v>6</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="E242" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="F242" s="14">
+        <v>45201</v>
+      </c>
+      <c r="G242" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="H242" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="I242" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="J242" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="K242" s="16"/>
+      <c r="L242" s="16"/>
+      <c r="M242" s="16"/>
+      <c r="N242" s="16"/>
+      <c r="O242" s="16"/>
+      <c r="P242" s="16"/>
+      <c r="Q242" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="R242" s="17"/>
+      <c r="S242" s="18"/>
+      <c r="T242" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" ht="150.75" thickBot="1">
+      <c r="A243" s="11">
+        <v>7</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D243" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="E243" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="F243" s="14"/>
+      <c r="G243" s="15"/>
+      <c r="H243" s="15"/>
+      <c r="I243" s="15"/>
+      <c r="J243" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="K243" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="L243" s="16"/>
+      <c r="M243" s="16"/>
+      <c r="N243" s="16"/>
+      <c r="O243" s="16"/>
+      <c r="P243" s="16"/>
+      <c r="Q243" s="16"/>
+      <c r="R243" s="17"/>
+      <c r="S243" s="18"/>
+      <c r="T243" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" ht="150.75" thickBot="1">
+      <c r="A244" s="11">
+        <v>8</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D244" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="E244" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="F244" s="14"/>
+      <c r="G244" s="15"/>
+      <c r="H244" s="15"/>
+      <c r="I244" s="15"/>
+      <c r="J244" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="K244" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="L244" s="16"/>
+      <c r="M244" s="16"/>
+      <c r="N244" s="16"/>
+      <c r="O244" s="16"/>
+      <c r="P244" s="16"/>
+      <c r="Q244" s="16"/>
+      <c r="R244" s="17"/>
+      <c r="S244" s="18"/>
+      <c r="T244" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" ht="150.75" thickBot="1">
+      <c r="A245" s="11">
+        <v>9</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="E245" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="F245" s="14"/>
+      <c r="G245" s="15"/>
+      <c r="H245" s="15"/>
+      <c r="I245" s="15"/>
+      <c r="J245" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="K245" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="L245" s="16"/>
+      <c r="M245" s="16"/>
+      <c r="N245" s="16"/>
+      <c r="O245" s="16"/>
+      <c r="P245" s="16"/>
+      <c r="Q245" s="16"/>
+      <c r="R245" s="17"/>
+      <c r="S245" s="18"/>
+      <c r="T245" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" ht="150.75" thickBot="1">
+      <c r="A246" s="11">
+        <v>29</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D246" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="E246" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="F246" s="14">
+        <v>45201</v>
+      </c>
+      <c r="G246" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="H246" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="I246" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="J246" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="K246" s="16"/>
+      <c r="L246" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M246" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N246" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="O246" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P246" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q246" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="R246" s="17"/>
+      <c r="S246" s="18"/>
+      <c r="T246" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" ht="165.75" thickBot="1">
+      <c r="A247" s="11">
+        <v>37</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="E247" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="F247" s="14">
+        <v>45201</v>
+      </c>
+      <c r="G247" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="H247" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="I247" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="J247" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="K247" s="16"/>
+      <c r="L247" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M247" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N247" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="O247" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P247" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q247" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="R247" s="17"/>
+      <c r="S247" s="18"/>
+      <c r="T247" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" ht="105.75" thickBot="1">
+      <c r="A248" s="11">
+        <v>45</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="F248" s="14">
+        <v>45201</v>
+      </c>
+      <c r="G248" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="H248" s="15"/>
+      <c r="I248" s="15"/>
+      <c r="J248" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="K248" s="16"/>
+      <c r="L248" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M248" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N248" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="O248" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P248" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q248" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="R248" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="S248" s="18"/>
+      <c r="T248" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" ht="120.75" thickBot="1">
+      <c r="A249" s="11">
+        <v>63</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="E249" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="F249" s="14">
+        <v>45201</v>
+      </c>
+      <c r="G249" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="H249" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="I249" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="J249" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="K249" s="16"/>
+      <c r="L249" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M249" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N249" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="O249" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P249" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q249" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="R249" s="17"/>
+      <c r="S249" s="18"/>
+      <c r="T249" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" ht="120.75" thickBot="1">
+      <c r="A250" s="11">
+        <v>64</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="E250" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="F250" s="14">
+        <v>45201</v>
+      </c>
+      <c r="G250" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="H250" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="I250" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="J250" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="K250" s="16"/>
+      <c r="L250" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M250" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N250" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="O250" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P250" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q250" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="R250" s="17"/>
+      <c r="S250" s="18"/>
+      <c r="T250" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" ht="120.75" thickBot="1">
+      <c r="A251" s="11">
+        <v>65</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="E251" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="F251" s="14">
+        <v>45201</v>
+      </c>
+      <c r="G251" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="H251" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="I251" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="J251" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="K251" s="16"/>
+      <c r="L251" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="M251" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="N251" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="O251" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="P251" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q251" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="R251" s="17"/>
+      <c r="S251" s="18"/>
+      <c r="T251" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" ht="120.75" thickBot="1">
+      <c r="A252" s="11">
+        <v>66</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="F252" s="14"/>
+      <c r="G252" s="15"/>
+      <c r="H252" s="15"/>
+      <c r="I252" s="15"/>
+      <c r="J252" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="K252" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="L252" s="16"/>
+      <c r="M252" s="16"/>
+      <c r="N252" s="16"/>
+      <c r="O252" s="16"/>
+      <c r="P252" s="16"/>
+      <c r="Q252" s="16"/>
+      <c r="R252" s="17"/>
+      <c r="S252" s="18"/>
+      <c r="T252" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" ht="120.75" thickBot="1">
+      <c r="A253" s="11">
+        <v>67</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="F253" s="14"/>
+      <c r="G253" s="15"/>
+      <c r="H253" s="15"/>
+      <c r="I253" s="15"/>
+      <c r="J253" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="K253" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="L253" s="16"/>
+      <c r="M253" s="16"/>
+      <c r="N253" s="16"/>
+      <c r="O253" s="16"/>
+      <c r="P253" s="16"/>
+      <c r="Q253" s="16"/>
+      <c r="R253" s="17"/>
+      <c r="S253" s="18"/>
+      <c r="T253" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" ht="120.75" thickBot="1">
+      <c r="A254" s="11">
+        <v>68</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="F254" s="14"/>
+      <c r="G254" s="15"/>
+      <c r="H254" s="15"/>
+      <c r="I254" s="15"/>
+      <c r="J254" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="K254" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="L254" s="16"/>
+      <c r="M254" s="16"/>
+      <c r="N254" s="16"/>
+      <c r="O254" s="16"/>
+      <c r="P254" s="16"/>
+      <c r="Q254" s="16"/>
+      <c r="R254" s="17"/>
+      <c r="S254" s="18"/>
+      <c r="T254" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" ht="120.75" thickBot="1">
+      <c r="A255" s="11">
+        <v>69</v>
+      </c>
+      <c r="B255" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="E255" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="F255" s="14"/>
+      <c r="G255" s="15"/>
+      <c r="H255" s="15"/>
+      <c r="I255" s="15"/>
+      <c r="J255" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="K255" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="L255" s="16"/>
+      <c r="M255" s="16"/>
+      <c r="N255" s="16"/>
+      <c r="O255" s="16"/>
+      <c r="P255" s="16"/>
+      <c r="Q255" s="16"/>
+      <c r="R255" s="17"/>
+      <c r="S255" s="18"/>
+      <c r="T255" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" ht="120.75" thickBot="1">
+      <c r="A256" s="11">
+        <v>70</v>
+      </c>
+      <c r="B256" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="E256" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="F256" s="14"/>
+      <c r="G256" s="15"/>
+      <c r="H256" s="15"/>
+      <c r="I256" s="15"/>
+      <c r="J256" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="K256" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="L256" s="16"/>
+      <c r="M256" s="16"/>
+      <c r="N256" s="16"/>
+      <c r="O256" s="16"/>
+      <c r="P256" s="16"/>
+      <c r="Q256" s="16"/>
+      <c r="R256" s="17"/>
+      <c r="S256" s="18"/>
+      <c r="T256" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" ht="120.75" thickBot="1">
+      <c r="A257" s="11">
+        <v>71</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="E257" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="F257" s="14"/>
+      <c r="G257" s="15"/>
+      <c r="H257" s="15"/>
+      <c r="I257" s="15"/>
+      <c r="J257" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="K257" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="L257" s="16"/>
+      <c r="M257" s="16"/>
+      <c r="N257" s="16"/>
+      <c r="O257" s="16"/>
+      <c r="P257" s="16"/>
+      <c r="Q257" s="16"/>
+      <c r="R257" s="17"/>
+      <c r="S257" s="18"/>
+      <c r="T257" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" ht="120.75" thickBot="1">
+      <c r="A258" s="11">
+        <v>72</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="E258" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="F258" s="14"/>
+      <c r="G258" s="15"/>
+      <c r="H258" s="15"/>
+      <c r="I258" s="15"/>
+      <c r="J258" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="K258" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="L258" s="16"/>
+      <c r="M258" s="16"/>
+      <c r="N258" s="16"/>
+      <c r="O258" s="16"/>
+      <c r="P258" s="16"/>
+      <c r="Q258" s="16"/>
+      <c r="R258" s="17"/>
+      <c r="S258" s="18"/>
+      <c r="T258" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" ht="120.75" thickBot="1">
+      <c r="A259" s="11">
+        <v>73</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="E259" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="F259" s="14"/>
+      <c r="G259" s="15"/>
+      <c r="H259" s="15"/>
+      <c r="I259" s="15"/>
+      <c r="J259" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="K259" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="L259" s="16"/>
+      <c r="M259" s="16"/>
+      <c r="N259" s="16"/>
+      <c r="O259" s="16"/>
+      <c r="P259" s="16"/>
+      <c r="Q259" s="16"/>
+      <c r="R259" s="17"/>
+      <c r="S259" s="18"/>
+      <c r="T259" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" ht="120">
+      <c r="A260" s="11">
+        <v>74</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="E260" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="F260" s="14"/>
+      <c r="G260" s="15"/>
+      <c r="H260" s="15"/>
+      <c r="I260" s="15"/>
+      <c r="J260" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="K260" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="L260" s="16"/>
+      <c r="M260" s="16"/>
+      <c r="N260" s="16"/>
+      <c r="O260" s="16"/>
+      <c r="P260" s="16"/>
+      <c r="Q260" s="16"/>
+      <c r="R260" s="17"/>
+      <c r="S260" s="18"/>
+      <c r="T260" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" ht="14.25" customHeight="1">
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
@@ -12972,7 +13690,7 @@
       <c r="S261" s="1"/>
       <c r="T261" s="6"/>
     </row>
-    <row r="262" spans="6:20" ht="14.25" customHeight="1">
+    <row r="262" spans="1:20" ht="14.25" customHeight="1">
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
@@ -12989,7 +13707,7 @@
       <c r="S262" s="1"/>
       <c r="T262" s="6"/>
     </row>
-    <row r="263" spans="6:20" ht="14.25" customHeight="1">
+    <row r="263" spans="1:20" ht="14.25" customHeight="1">
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
@@ -13006,7 +13724,7 @@
       <c r="S263" s="1"/>
       <c r="T263" s="6"/>
     </row>
-    <row r="264" spans="6:20" ht="14.25" customHeight="1">
+    <row r="264" spans="1:20" ht="14.25" customHeight="1">
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
@@ -13023,7 +13741,7 @@
       <c r="S264" s="1"/>
       <c r="T264" s="6"/>
     </row>
-    <row r="265" spans="6:20" ht="14.25" customHeight="1">
+    <row r="265" spans="1:20" ht="14.25" customHeight="1">
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
@@ -13040,7 +13758,7 @@
       <c r="S265" s="1"/>
       <c r="T265" s="6"/>
     </row>
-    <row r="266" spans="6:20" ht="14.25" customHeight="1">
+    <row r="266" spans="1:20" ht="14.25" customHeight="1">
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
@@ -13057,7 +13775,7 @@
       <c r="S266" s="1"/>
       <c r="T266" s="6"/>
     </row>
-    <row r="267" spans="6:20" ht="14.25" customHeight="1">
+    <row r="267" spans="1:20" ht="14.25" customHeight="1">
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
@@ -13074,7 +13792,7 @@
       <c r="S267" s="1"/>
       <c r="T267" s="6"/>
     </row>
-    <row r="268" spans="6:20" ht="14.25" customHeight="1">
+    <row r="268" spans="1:20" ht="14.25" customHeight="1">
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
@@ -13091,7 +13809,7 @@
       <c r="S268" s="1"/>
       <c r="T268" s="6"/>
     </row>
-    <row r="269" spans="6:20" ht="14.25" customHeight="1">
+    <row r="269" spans="1:20" ht="14.25" customHeight="1">
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
@@ -13108,7 +13826,7 @@
       <c r="S269" s="1"/>
       <c r="T269" s="6"/>
     </row>
-    <row r="270" spans="6:20" ht="14.25" customHeight="1">
+    <row r="270" spans="1:20" ht="14.25" customHeight="1">
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
@@ -13125,7 +13843,7 @@
       <c r="S270" s="1"/>
       <c r="T270" s="6"/>
     </row>
-    <row r="271" spans="6:20" ht="14.25" customHeight="1">
+    <row r="271" spans="1:20" ht="14.25" customHeight="1">
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
@@ -13142,7 +13860,7 @@
       <c r="S271" s="1"/>
       <c r="T271" s="6"/>
     </row>
-    <row r="272" spans="6:20" ht="14.25" customHeight="1">
+    <row r="272" spans="1:20" ht="14.25" customHeight="1">
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
@@ -22229,13 +22947,13 @@
       <c r="T859" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T241">
+  <autoFilter ref="A9:T241" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="VALIDAZIONE"/>
       </filters>
     </filterColumn>
-    <sortState ref="A207:T352">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A207:T352">
       <sortCondition ref="C9:C374"/>
     </sortState>
   </autoFilter>
@@ -22249,18 +22967,18 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J191:J241 O191:O241 L191:M241 O189 L189:M189 J189 L184:M187 O184:O187 J184:J187</xm:sqref>
+          <xm:sqref>J184:J187 O191:O241 L191:M241 O189 L189:M189 J189 L184:M187 O184:O187 J191:J241</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -22273,7 +22991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/GATEWAY/S1#111SANTECXXXXX/santec_vendor/santec_ecaresuite/5.0.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111SANTECXXXXX/santec_vendor/santec_ecaresuite/5.0.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sorgenti\it-fse-accreditamento\GATEWAY\S1#111SANTECXXXXX\santec_vendor\santec_ecaresuite\5.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B95CBCC-4B2B-448A-A6F4-1792B49E0587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E25E7BA-0579-4C84-AA3E-50561E2D6427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="4410" windowWidth="43830" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="43830" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$241</definedName>
     <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$183</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhUlYP9yzNmk4f07XMJovPPUaqOhw=="/>
@@ -2680,15 +2680,6 @@
     <t>subject_application_version: 5.0.0</t>
   </si>
   <si>
-    <t>c21ee6dab801bc68</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.d66e74ac26aadf09ed93865239f7293d0ec25f4e5b53dcc284c1eeb7467a317c.1c5e9c19f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-04-29T20:34:40Z</t>
-  </si>
-  <si>
     <t>03f3677a849edff5</t>
   </si>
   <si>
@@ -2896,12 +2887,6 @@
     <t>88f5fd6ca7d8061f</t>
   </si>
   <si>
-    <t>c6d1b03785601d27</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.8c4b10fff036fd8607b2ccc73bc9d34f1e0d9d15322f1091332509a29896552d.906bfac884^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Alcune sezioni di CDA2 presenti nel test case non vengono gestite da applicativo</t>
   </si>
   <si>
@@ -2984,9 +2969,6 @@
   </si>
   <si>
     <t>2023-06-19T01:05:07Z</t>
-  </si>
-  <si>
-    <t>2023-06-19T00:54:06Z</t>
   </si>
   <si>
     <t>2023-06-19T00:52:27Z</t>
@@ -3220,6 +3202,24 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-10-02T21:50:45Z</t>
+  </si>
+  <si>
+    <t>f139af5560c66133</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.426e748570cfa086e22e4970153e911583cb85025f4175d52d08c665e00d6400.02603e4753^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-10-02T21:58:55Z</t>
+  </si>
+  <si>
+    <t>95ef70021a176658</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.d66e74ac26aadf09ed93865239f7293d0ec25f4e5b53dcc284c1eeb7467a317c.a6a1a61364^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3836,10 +3836,10 @@
   <dimension ref="A1:T859"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="E209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L211" sqref="L211"/>
+      <selection pane="bottomRight" activeCell="M210" sqref="M210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10029,13 +10029,13 @@
         <v>45096</v>
       </c>
       <c r="G184" s="15" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H184" s="15" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I184" s="15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J184" s="16" t="s">
         <v>396</v>
@@ -10048,13 +10048,13 @@
         <v>396</v>
       </c>
       <c r="N184" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O184" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P184" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q184" s="16" t="s">
         <v>495</v>
@@ -10085,13 +10085,13 @@
         <v>45096</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H185" s="15" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I185" s="15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J185" s="16" t="s">
         <v>396</v>
@@ -10104,13 +10104,13 @@
         <v>396</v>
       </c>
       <c r="N185" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O185" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P185" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q185" s="16" t="s">
         <v>495</v>
@@ -10141,7 +10141,7 @@
         <v>45096</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H186" s="15"/>
       <c r="I186" s="15"/>
@@ -10156,13 +10156,13 @@
         <v>396</v>
       </c>
       <c r="N186" s="16" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="O186" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P186" s="16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q186" s="16" t="s">
         <v>495</v>
@@ -10192,16 +10192,16 @@
         <v>450</v>
       </c>
       <c r="F187" s="14">
-        <v>45096</v>
+        <v>45201</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>604</v>
+        <v>666</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>574</v>
+        <v>667</v>
       </c>
       <c r="I187" s="15" t="s">
-        <v>575</v>
+        <v>668</v>
       </c>
       <c r="J187" s="16" t="s">
         <v>396</v>
@@ -10245,7 +10245,7 @@
         <v>497</v>
       </c>
       <c r="K188" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L188" s="16"/>
       <c r="M188" s="16"/>
@@ -10283,7 +10283,7 @@
         <v>497</v>
       </c>
       <c r="K189" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L189" s="16"/>
       <c r="M189" s="16"/>
@@ -10321,7 +10321,7 @@
         <v>497</v>
       </c>
       <c r="K190" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L190" s="16"/>
       <c r="M190" s="16"/>
@@ -10355,13 +10355,13 @@
         <v>45096</v>
       </c>
       <c r="G191" s="15" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="H191" s="15" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="I191" s="15" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="J191" s="16" t="s">
         <v>396</v>
@@ -10374,13 +10374,13 @@
         <v>396</v>
       </c>
       <c r="N191" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O191" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P191" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q191" s="16" t="s">
         <v>495</v>
@@ -10411,13 +10411,13 @@
         <v>45096</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H192" s="15" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="J192" s="16" t="s">
         <v>396</v>
@@ -10430,13 +10430,13 @@
         <v>396</v>
       </c>
       <c r="N192" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O192" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P192" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q192" s="16" t="s">
         <v>495</v>
@@ -10467,13 +10467,13 @@
         <v>45096</v>
       </c>
       <c r="G193" s="15" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H193" s="15" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I193" s="15" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="J193" s="16" t="s">
         <v>396</v>
@@ -10486,13 +10486,13 @@
         <v>396</v>
       </c>
       <c r="N193" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O193" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P193" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q193" s="16" t="s">
         <v>495</v>
@@ -10523,13 +10523,13 @@
         <v>45096</v>
       </c>
       <c r="G194" s="15" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="H194" s="15" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I194" s="15" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J194" s="16" t="s">
         <v>396</v>
@@ -10542,13 +10542,13 @@
         <v>396</v>
       </c>
       <c r="N194" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O194" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P194" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q194" s="16" t="s">
         <v>495</v>
@@ -10579,13 +10579,13 @@
         <v>45096</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H195" s="15" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I195" s="15" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="J195" s="16" t="s">
         <v>396</v>
@@ -10598,13 +10598,13 @@
         <v>396</v>
       </c>
       <c r="N195" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O195" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P195" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q195" s="16" t="s">
         <v>495</v>
@@ -10635,13 +10635,13 @@
         <v>45096</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="H196" s="15" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="J196" s="16" t="s">
         <v>396</v>
@@ -10654,13 +10654,13 @@
         <v>396</v>
       </c>
       <c r="N196" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O196" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P196" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q196" s="16" t="s">
         <v>495</v>
@@ -10695,7 +10695,7 @@
         <v>497</v>
       </c>
       <c r="K197" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L197" s="16"/>
       <c r="M197" s="16"/>
@@ -10733,7 +10733,7 @@
         <v>497</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L198" s="16"/>
       <c r="M198" s="16"/>
@@ -10771,7 +10771,7 @@
         <v>497</v>
       </c>
       <c r="K199" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L199" s="16"/>
       <c r="M199" s="16"/>
@@ -10805,13 +10805,13 @@
         <v>45096</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H200" s="15" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="I200" s="15" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="J200" s="16" t="s">
         <v>396</v>
@@ -10824,13 +10824,13 @@
         <v>396</v>
       </c>
       <c r="N200" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O200" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P200" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q200" s="16" t="s">
         <v>495</v>
@@ -10861,13 +10861,13 @@
         <v>45096</v>
       </c>
       <c r="G201" s="15" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="I201" s="15" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="J201" s="16" t="s">
         <v>396</v>
@@ -10880,13 +10880,13 @@
         <v>396</v>
       </c>
       <c r="N201" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O201" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P201" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q201" s="16" t="s">
         <v>495</v>
@@ -10921,7 +10921,7 @@
         <v>497</v>
       </c>
       <c r="K202" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L202" s="16"/>
       <c r="M202" s="16"/>
@@ -10959,7 +10959,7 @@
         <v>497</v>
       </c>
       <c r="K203" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L203" s="16"/>
       <c r="M203" s="16"/>
@@ -10997,7 +10997,7 @@
         <v>497</v>
       </c>
       <c r="K204" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L204" s="16"/>
       <c r="M204" s="16"/>
@@ -11035,7 +11035,7 @@
         <v>497</v>
       </c>
       <c r="K205" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L205" s="16"/>
       <c r="M205" s="16"/>
@@ -11073,7 +11073,7 @@
         <v>497</v>
       </c>
       <c r="K206" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L206" s="16"/>
       <c r="M206" s="16"/>
@@ -11111,7 +11111,7 @@
         <v>497</v>
       </c>
       <c r="K207" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L207" s="16"/>
       <c r="M207" s="16"/>
@@ -11149,7 +11149,7 @@
         <v>497</v>
       </c>
       <c r="K208" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L208" s="16"/>
       <c r="M208" s="16"/>
@@ -11183,13 +11183,13 @@
         <v>45096</v>
       </c>
       <c r="G209" s="15" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H209" s="15" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I209" s="15" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="J209" s="16" t="s">
         <v>396</v>
@@ -11202,13 +11202,13 @@
         <v>396</v>
       </c>
       <c r="N209" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O209" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P209" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q209" s="16" t="s">
         <v>495</v>
@@ -11236,16 +11236,16 @@
         <v>380</v>
       </c>
       <c r="F210" s="14">
-        <v>45045</v>
+        <v>45201</v>
       </c>
       <c r="G210" s="15" t="s">
-        <v>504</v>
+        <v>669</v>
       </c>
       <c r="H210" s="15" t="s">
-        <v>502</v>
+        <v>670</v>
       </c>
       <c r="I210" s="15" t="s">
-        <v>503</v>
+        <v>671</v>
       </c>
       <c r="J210" s="16" t="s">
         <v>396</v>
@@ -11289,7 +11289,7 @@
         <v>497</v>
       </c>
       <c r="K211" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L211" s="16"/>
       <c r="M211" s="16"/>
@@ -11327,7 +11327,7 @@
         <v>497</v>
       </c>
       <c r="K212" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L212" s="16"/>
       <c r="M212" s="16"/>
@@ -11365,7 +11365,7 @@
         <v>497</v>
       </c>
       <c r="K213" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L213" s="16"/>
       <c r="M213" s="16"/>
@@ -11399,13 +11399,13 @@
         <v>45046</v>
       </c>
       <c r="G214" s="15" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H214" s="15" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I214" s="15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J214" s="16" t="s">
         <v>396</v>
@@ -11418,13 +11418,13 @@
         <v>396</v>
       </c>
       <c r="N214" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O214" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P214" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q214" s="16" t="s">
         <v>495</v>
@@ -11455,13 +11455,13 @@
         <v>45046</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H215" s="15" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I215" s="15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J215" s="16" t="s">
         <v>396</v>
@@ -11474,13 +11474,13 @@
         <v>396</v>
       </c>
       <c r="N215" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O215" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P215" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q215" s="16" t="s">
         <v>495</v>
@@ -11511,7 +11511,7 @@
         <v>45046</v>
       </c>
       <c r="G216" s="15" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H216" s="15"/>
       <c r="I216" s="15"/>
@@ -11526,13 +11526,13 @@
         <v>396</v>
       </c>
       <c r="N216" s="16" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="O216" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P216" s="16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q216" s="16" t="s">
         <v>495</v>
@@ -11565,13 +11565,13 @@
         <v>45046</v>
       </c>
       <c r="G217" s="15" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H217" s="15" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I217" s="15" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J217" s="16" t="s">
         <v>396</v>
@@ -11584,13 +11584,13 @@
         <v>396</v>
       </c>
       <c r="N217" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O217" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P217" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q217" s="16" t="s">
         <v>495</v>
@@ -11621,13 +11621,13 @@
         <v>45046</v>
       </c>
       <c r="G218" s="15" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H218" s="15" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I218" s="15" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J218" s="16" t="s">
         <v>396</v>
@@ -11640,13 +11640,13 @@
         <v>396</v>
       </c>
       <c r="N218" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O218" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P218" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q218" s="16" t="s">
         <v>495</v>
@@ -11677,13 +11677,13 @@
         <v>45046</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H219" s="15" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I219" s="15" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J219" s="16" t="s">
         <v>396</v>
@@ -11696,13 +11696,13 @@
         <v>396</v>
       </c>
       <c r="N219" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O219" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P219" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q219" s="16" t="s">
         <v>495</v>
@@ -11733,13 +11733,13 @@
         <v>45046</v>
       </c>
       <c r="G220" s="15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H220" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I220" s="15" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J220" s="16" t="s">
         <v>396</v>
@@ -11752,13 +11752,13 @@
         <v>396</v>
       </c>
       <c r="N220" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O220" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P220" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q220" s="16" t="s">
         <v>495</v>
@@ -11789,13 +11789,13 @@
         <v>45046</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H221" s="15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I221" s="15" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J221" s="16" t="s">
         <v>396</v>
@@ -11808,13 +11808,13 @@
         <v>396</v>
       </c>
       <c r="N221" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O221" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P221" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q221" s="16" t="s">
         <v>495</v>
@@ -11845,13 +11845,13 @@
         <v>45046</v>
       </c>
       <c r="G222" s="15" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H222" s="15" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I222" s="15" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J222" s="16" t="s">
         <v>396</v>
@@ -11864,13 +11864,13 @@
         <v>396</v>
       </c>
       <c r="N222" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O222" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P222" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q222" s="16" t="s">
         <v>495</v>
@@ -11901,13 +11901,13 @@
         <v>45046</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H223" s="15" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I223" s="15" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J223" s="16" t="s">
         <v>396</v>
@@ -11920,13 +11920,13 @@
         <v>396</v>
       </c>
       <c r="N223" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O223" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P223" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q223" s="16" t="s">
         <v>495</v>
@@ -11957,13 +11957,13 @@
         <v>45046</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H224" s="15" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I224" s="15" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J224" s="16" t="s">
         <v>396</v>
@@ -11976,13 +11976,13 @@
         <v>396</v>
       </c>
       <c r="N224" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O224" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P224" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q224" s="16" t="s">
         <v>495</v>
@@ -12013,13 +12013,13 @@
         <v>45048</v>
       </c>
       <c r="G225" s="15" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H225" s="15" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I225" s="15" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="J225" s="16" t="s">
         <v>396</v>
@@ -12032,13 +12032,13 @@
         <v>396</v>
       </c>
       <c r="N225" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O225" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P225" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q225" s="16" t="s">
         <v>495</v>
@@ -12069,13 +12069,13 @@
         <v>45048</v>
       </c>
       <c r="G226" s="15" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H226" s="15" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I226" s="15" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J226" s="16" t="s">
         <v>396</v>
@@ -12088,13 +12088,13 @@
         <v>396</v>
       </c>
       <c r="N226" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O226" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P226" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q226" s="16" t="s">
         <v>495</v>
@@ -12125,13 +12125,13 @@
         <v>45048</v>
       </c>
       <c r="G227" s="15" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H227" s="15" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I227" s="15" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J227" s="16" t="s">
         <v>396</v>
@@ -12144,13 +12144,13 @@
         <v>396</v>
       </c>
       <c r="N227" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O227" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P227" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q227" s="16" t="s">
         <v>495</v>
@@ -12181,13 +12181,13 @@
         <v>45048</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H228" s="15" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I228" s="15" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J228" s="16" t="s">
         <v>396</v>
@@ -12200,13 +12200,13 @@
         <v>396</v>
       </c>
       <c r="N228" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O228" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P228" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q228" s="16" t="s">
         <v>495</v>
@@ -12237,13 +12237,13 @@
         <v>45048</v>
       </c>
       <c r="G229" s="15" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H229" s="15" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I229" s="15" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J229" s="16" t="s">
         <v>396</v>
@@ -12256,13 +12256,13 @@
         <v>396</v>
       </c>
       <c r="N229" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O229" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P229" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q229" s="16" t="s">
         <v>495</v>
@@ -12297,7 +12297,7 @@
         <v>497</v>
       </c>
       <c r="K230" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L230" s="16"/>
       <c r="M230" s="16"/>
@@ -12335,7 +12335,7 @@
         <v>497</v>
       </c>
       <c r="K231" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L231" s="16"/>
       <c r="M231" s="16"/>
@@ -12369,13 +12369,13 @@
         <v>45048</v>
       </c>
       <c r="G232" s="15" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H232" s="15" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I232" s="15" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J232" s="16" t="s">
         <v>396</v>
@@ -12388,13 +12388,13 @@
         <v>396</v>
       </c>
       <c r="N232" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O232" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P232" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q232" s="16" t="s">
         <v>495</v>
@@ -12429,7 +12429,7 @@
         <v>497</v>
       </c>
       <c r="K233" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L233" s="16"/>
       <c r="M233" s="16"/>
@@ -12463,13 +12463,13 @@
         <v>45048</v>
       </c>
       <c r="G234" s="15" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H234" s="15" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I234" s="15" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J234" s="16" t="s">
         <v>396</v>
@@ -12482,13 +12482,13 @@
         <v>396</v>
       </c>
       <c r="N234" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O234" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P234" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q234" s="16" t="s">
         <v>495</v>
@@ -12519,13 +12519,13 @@
         <v>45048</v>
       </c>
       <c r="G235" s="15" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H235" s="15" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I235" s="15" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J235" s="16" t="s">
         <v>396</v>
@@ -12538,13 +12538,13 @@
         <v>396</v>
       </c>
       <c r="N235" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O235" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P235" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q235" s="16" t="s">
         <v>495</v>
@@ -12579,7 +12579,7 @@
         <v>497</v>
       </c>
       <c r="K236" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L236" s="16"/>
       <c r="M236" s="16"/>
@@ -12613,13 +12613,13 @@
         <v>45048</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H237" s="15" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I237" s="15" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J237" s="16" t="s">
         <v>396</v>
@@ -12632,13 +12632,13 @@
         <v>396</v>
       </c>
       <c r="N237" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O237" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P237" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q237" s="16" t="s">
         <v>495</v>
@@ -12669,13 +12669,13 @@
         <v>45048</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H238" s="15" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I238" s="15" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="J238" s="16" t="s">
         <v>396</v>
@@ -12688,13 +12688,13 @@
         <v>396</v>
       </c>
       <c r="N238" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O238" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P238" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q238" s="16" t="s">
         <v>495</v>
@@ -12725,13 +12725,13 @@
         <v>45048</v>
       </c>
       <c r="G239" s="15" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H239" s="15" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I239" s="15" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J239" s="16" t="s">
         <v>396</v>
@@ -12744,13 +12744,13 @@
         <v>396</v>
       </c>
       <c r="N239" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O239" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P239" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q239" s="16" t="s">
         <v>495</v>
@@ -12785,7 +12785,7 @@
         <v>497</v>
       </c>
       <c r="K240" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L240" s="16"/>
       <c r="M240" s="16"/>
@@ -12823,7 +12823,7 @@
         <v>497</v>
       </c>
       <c r="K241" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L241" s="16"/>
       <c r="M241" s="16"/>
@@ -12848,22 +12848,22 @@
         <v>30</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E242" s="13" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F242" s="14">
         <v>45201</v>
       </c>
       <c r="G242" s="15" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="H242" s="15" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="I242" s="15" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="J242" s="16" t="s">
         <v>396</v>
@@ -12894,10 +12894,10 @@
         <v>30</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F243" s="14"/>
       <c r="G243" s="15"/>
@@ -12907,7 +12907,7 @@
         <v>497</v>
       </c>
       <c r="K243" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L243" s="16"/>
       <c r="M243" s="16"/>
@@ -12932,10 +12932,10 @@
         <v>30</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F244" s="14"/>
       <c r="G244" s="15"/>
@@ -12945,7 +12945,7 @@
         <v>497</v>
       </c>
       <c r="K244" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L244" s="16"/>
       <c r="M244" s="16"/>
@@ -12970,10 +12970,10 @@
         <v>30</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F245" s="14"/>
       <c r="G245" s="15"/>
@@ -12983,7 +12983,7 @@
         <v>497</v>
       </c>
       <c r="K245" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L245" s="16"/>
       <c r="M245" s="16"/>
@@ -13008,7 +13008,7 @@
         <v>30</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E246" s="13" t="s">
         <v>388</v>
@@ -13017,13 +13017,13 @@
         <v>45201</v>
       </c>
       <c r="G246" s="15" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="H246" s="15" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="I246" s="15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J246" s="16" t="s">
         <v>396</v>
@@ -13036,13 +13036,13 @@
         <v>396</v>
       </c>
       <c r="N246" s="16" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="O246" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P246" s="16" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="Q246" s="16" t="s">
         <v>495</v>
@@ -13064,7 +13064,7 @@
         <v>30</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E247" s="13" t="s">
         <v>392</v>
@@ -13073,13 +13073,13 @@
         <v>45201</v>
       </c>
       <c r="G247" s="15" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="H247" s="15" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="I247" s="15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J247" s="16" t="s">
         <v>396</v>
@@ -13092,13 +13092,13 @@
         <v>396</v>
       </c>
       <c r="N247" s="16" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="O247" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P247" s="16" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="Q247" s="16" t="s">
         <v>495</v>
@@ -13120,7 +13120,7 @@
         <v>30</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E248" s="13" t="s">
         <v>395</v>
@@ -13129,7 +13129,7 @@
         <v>45201</v>
       </c>
       <c r="G248" s="15" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="H248" s="15"/>
       <c r="I248" s="15"/>
@@ -13144,13 +13144,13 @@
         <v>396</v>
       </c>
       <c r="N248" s="16" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="O248" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P248" s="16" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="Q248" s="16" t="s">
         <v>495</v>
@@ -13174,22 +13174,22 @@
         <v>30</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F249" s="14">
         <v>45201</v>
       </c>
       <c r="G249" s="15" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H249" s="15" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="I249" s="15" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="J249" s="16" t="s">
         <v>396</v>
@@ -13202,13 +13202,13 @@
         <v>396</v>
       </c>
       <c r="N249" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O249" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P249" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q249" s="16" t="s">
         <v>495</v>
@@ -13230,22 +13230,22 @@
         <v>30</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F250" s="14">
         <v>45201</v>
       </c>
       <c r="G250" s="15" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="H250" s="15" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="I250" s="15" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="J250" s="16" t="s">
         <v>396</v>
@@ -13258,13 +13258,13 @@
         <v>396</v>
       </c>
       <c r="N250" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O250" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P250" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q250" s="16" t="s">
         <v>495</v>
@@ -13286,22 +13286,22 @@
         <v>30</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F251" s="14">
         <v>45201</v>
       </c>
       <c r="G251" s="15" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H251" s="15" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="I251" s="15" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="J251" s="16" t="s">
         <v>396</v>
@@ -13314,13 +13314,13 @@
         <v>396</v>
       </c>
       <c r="N251" s="16" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="O251" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P251" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q251" s="16" t="s">
         <v>495</v>
@@ -13342,10 +13342,10 @@
         <v>30</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="F252" s="14"/>
       <c r="G252" s="15"/>
@@ -13355,7 +13355,7 @@
         <v>497</v>
       </c>
       <c r="K252" s="16" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="L252" s="16"/>
       <c r="M252" s="16"/>
@@ -13380,10 +13380,10 @@
         <v>30</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E253" s="13" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F253" s="14"/>
       <c r="G253" s="15"/>
@@ -13393,7 +13393,7 @@
         <v>497</v>
       </c>
       <c r="K253" s="16" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="L253" s="16"/>
       <c r="M253" s="16"/>
@@ -13418,10 +13418,10 @@
         <v>30</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E254" s="13" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F254" s="14"/>
       <c r="G254" s="15"/>
@@ -13431,7 +13431,7 @@
         <v>497</v>
       </c>
       <c r="K254" s="16" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="L254" s="16"/>
       <c r="M254" s="16"/>
@@ -13456,10 +13456,10 @@
         <v>30</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E255" s="13" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F255" s="14"/>
       <c r="G255" s="15"/>
@@ -13469,7 +13469,7 @@
         <v>497</v>
       </c>
       <c r="K255" s="16" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="L255" s="16"/>
       <c r="M255" s="16"/>
@@ -13494,10 +13494,10 @@
         <v>30</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="F256" s="14"/>
       <c r="G256" s="15"/>
@@ -13507,7 +13507,7 @@
         <v>497</v>
       </c>
       <c r="K256" s="16" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="L256" s="16"/>
       <c r="M256" s="16"/>
@@ -13532,10 +13532,10 @@
         <v>30</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E257" s="13" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F257" s="14"/>
       <c r="G257" s="15"/>
@@ -13545,7 +13545,7 @@
         <v>497</v>
       </c>
       <c r="K257" s="16" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="L257" s="16"/>
       <c r="M257" s="16"/>
@@ -13570,10 +13570,10 @@
         <v>30</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F258" s="14"/>
       <c r="G258" s="15"/>
@@ -13583,7 +13583,7 @@
         <v>497</v>
       </c>
       <c r="K258" s="16" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="L258" s="16"/>
       <c r="M258" s="16"/>
@@ -13608,10 +13608,10 @@
         <v>30</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F259" s="14"/>
       <c r="G259" s="15"/>
@@ -13621,7 +13621,7 @@
         <v>497</v>
       </c>
       <c r="K259" s="16" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="L259" s="16"/>
       <c r="M259" s="16"/>
@@ -13646,10 +13646,10 @@
         <v>30</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F260" s="14"/>
       <c r="G260" s="15"/>
@@ -13659,7 +13659,7 @@
         <v>497</v>
       </c>
       <c r="K260" s="16" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="L260" s="16"/>
       <c r="M260" s="16"/>

--- a/GATEWAY/S1#111SANTECXXXXX/santec_vendor/santec_ecaresuite/5.0.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111SANTECXXXXX/santec_vendor/santec_ecaresuite/5.0.0/report-checklist.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sorgenti\it-fse-accreditamento\GATEWAY\S1#111SANTECXXXXX\santec_vendor\santec_ecaresuite\5.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E25E7BA-0579-4C84-AA3E-50561E2D6427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACAA6D3-F44A-4806-886A-57696DB627F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="43830" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25995" yWindow="4260" windowWidth="43830" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$260</definedName>
     <definedName name="filtro" localSheetId="0">TestCases!$A$9:$S$183</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2991,15 +2991,6 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-10-02T14:07:14Z</t>
-  </si>
-  <si>
-    <t>59cba27a214c4915</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.a6e975b8c0a216bbe459bb3e549c8a9208524814ec3b1c552f33939ae03f642b.93d93aee24^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT2</t>
   </si>
   <si>
@@ -3204,22 +3195,31 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2023-10-02T21:50:45Z</t>
-  </si>
-  <si>
-    <t>f139af5560c66133</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.426e748570cfa086e22e4970153e911583cb85025f4175d52d08c665e00d6400.02603e4753^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-02T21:58:55Z</t>
-  </si>
-  <si>
-    <t>95ef70021a176658</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.d66e74ac26aadf09ed93865239f7293d0ec25f4e5b53dcc284c1eeb7467a317c.a6a1a61364^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-10-09T12:18:11Z</t>
+  </si>
+  <si>
+    <t>811f0c521442150e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.426e748570cfa086e22e4970153e911583cb85025f4175d52d08c665e00d6400.f3697916d8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-10-09T12:42:10Z</t>
+  </si>
+  <si>
+    <t>f0ad9b46f6cff0d4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.a6e975b8c0a216bbe459bb3e549c8a9208524814ec3b1c552f33939ae03f642b.827c52e1e0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-10-09T13:45:48Z</t>
+  </si>
+  <si>
+    <t>e7dedd07ad1a4767</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.d66e74ac26aadf09ed93865239f7293d0ec25f4e5b53dcc284c1eeb7467a317c.2571a81f9b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3836,10 +3836,10 @@
   <dimension ref="A1:T859"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="E209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M210" sqref="M210"/>
+      <selection pane="bottomRight" activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10009,7 +10009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="150.75" thickBot="1">
+    <row r="184" spans="1:20" ht="150.75" hidden="1" thickBot="1">
       <c r="A184" s="11">
         <v>32</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="165.75" thickBot="1">
+    <row r="185" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A185" s="11">
         <v>40</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="105.75" thickBot="1">
+    <row r="186" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A186" s="11">
         <v>48</v>
       </c>
@@ -10192,16 +10192,16 @@
         <v>450</v>
       </c>
       <c r="F187" s="14">
-        <v>45201</v>
+        <v>45208</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="I187" s="15" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="J187" s="16" t="s">
         <v>396</v>
@@ -10221,7 +10221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="165.75" thickBot="1">
+    <row r="188" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A188" s="11">
         <v>148</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="165.75" thickBot="1">
+    <row r="189" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A189" s="11">
         <v>149</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="165.75" thickBot="1">
+    <row r="190" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A190" s="11">
         <v>150</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="120.75" thickBot="1">
+    <row r="191" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A191" s="11">
         <v>151</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="135.75" thickBot="1">
+    <row r="192" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A192" s="11">
         <v>152</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="135.75" thickBot="1">
+    <row r="193" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A193" s="11">
         <v>153</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="135.75" thickBot="1">
+    <row r="194" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A194" s="11">
         <v>154</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="127.5" customHeight="1" thickBot="1">
+    <row r="195" spans="1:20" ht="127.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A195" s="11">
         <v>155</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="142.5" customHeight="1" thickBot="1">
+    <row r="196" spans="1:20" ht="142.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A196" s="11">
         <v>156</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="144" customHeight="1" thickBot="1">
+    <row r="197" spans="1:20" ht="144" hidden="1" customHeight="1" thickBot="1">
       <c r="A197" s="11">
         <v>157</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="135.75" thickBot="1">
+    <row r="198" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A198" s="11">
         <v>158</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="120.75" thickBot="1">
+    <row r="199" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A199" s="11">
         <v>159</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="120.75" thickBot="1">
+    <row r="200" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A200" s="11">
         <v>160</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="135.75" thickBot="1">
+    <row r="201" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A201" s="11">
         <v>161</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="135.75" thickBot="1">
+    <row r="202" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A202" s="11">
         <v>162</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="135.75" thickBot="1">
+    <row r="203" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A203" s="11">
         <v>163</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="135.75" thickBot="1">
+    <row r="204" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A204" s="11">
         <v>164</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="135.75" thickBot="1">
+    <row r="205" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A205" s="11">
         <v>165</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="135.75" thickBot="1">
+    <row r="206" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A206" s="11">
         <v>166</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="135.75" thickBot="1">
+    <row r="207" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A207" s="11">
         <v>167</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="135.75" thickBot="1">
+    <row r="208" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A208" s="11">
         <v>168</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="135.75" thickBot="1">
+    <row r="209" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A209" s="11">
         <v>169</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>380</v>
       </c>
       <c r="F210" s="14">
-        <v>45201</v>
+        <v>45208</v>
       </c>
       <c r="G210" s="15" t="s">
         <v>669</v>
@@ -11265,7 +11265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="150.75" thickBot="1">
+    <row r="211" spans="1:20" ht="150" hidden="1">
       <c r="A211" s="11">
         <v>25</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="150.75" thickBot="1">
+    <row r="212" spans="1:20" ht="150" hidden="1">
       <c r="A212" s="11">
         <v>26</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="150.75" thickBot="1">
+    <row r="213" spans="1:20" ht="150" hidden="1">
       <c r="A213" s="11">
         <v>27</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="150.75" thickBot="1">
+    <row r="214" spans="1:20" ht="150" hidden="1">
       <c r="A214" s="11">
         <v>35</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="165.75" thickBot="1">
+    <row r="215" spans="1:20" ht="165" hidden="1">
       <c r="A215" s="11">
         <v>43</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="105.75" thickBot="1">
+    <row r="216" spans="1:20" ht="105" hidden="1">
       <c r="A216" s="11">
         <v>51</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="105.75" thickBot="1">
+    <row r="217" spans="1:20" ht="105" hidden="1">
       <c r="A217" s="11">
         <v>122</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="105.75" thickBot="1">
+    <row r="218" spans="1:20" ht="105" hidden="1">
       <c r="A218" s="11">
         <v>123</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="105.75" thickBot="1">
+    <row r="219" spans="1:20" ht="105" hidden="1">
       <c r="A219" s="11">
         <v>124</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="120.75" thickBot="1">
+    <row r="220" spans="1:20" ht="120" hidden="1">
       <c r="A220" s="11">
         <v>125</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="105.75" thickBot="1">
+    <row r="221" spans="1:20" ht="105" hidden="1">
       <c r="A221" s="11">
         <v>126</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="105.75" thickBot="1">
+    <row r="222" spans="1:20" ht="105" hidden="1">
       <c r="A222" s="11">
         <v>127</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="105.75" thickBot="1">
+    <row r="223" spans="1:20" ht="105" hidden="1">
       <c r="A223" s="11">
         <v>128</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="120.75" thickBot="1">
+    <row r="224" spans="1:20" ht="120" hidden="1">
       <c r="A224" s="11">
         <v>129</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="105.75" thickBot="1">
+    <row r="225" spans="1:20" ht="105" hidden="1">
       <c r="A225" s="11">
         <v>130</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="105.75" thickBot="1">
+    <row r="226" spans="1:20" ht="105" hidden="1">
       <c r="A226" s="11">
         <v>131</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="105.75" thickBot="1">
+    <row r="227" spans="1:20" ht="105" hidden="1">
       <c r="A227" s="11">
         <v>132</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="120.75" thickBot="1">
+    <row r="228" spans="1:20" ht="120" hidden="1">
       <c r="A228" s="11">
         <v>133</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="105.75" thickBot="1">
+    <row r="229" spans="1:20" ht="105" hidden="1">
       <c r="A229" s="11">
         <v>134</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="105.75" thickBot="1">
+    <row r="230" spans="1:20" ht="105" hidden="1">
       <c r="A230" s="11">
         <v>135</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="105.75" thickBot="1">
+    <row r="231" spans="1:20" ht="105" hidden="1">
       <c r="A231" s="11">
         <v>136</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="120.75" thickBot="1">
+    <row r="232" spans="1:20" ht="120" hidden="1">
       <c r="A232" s="11">
         <v>137</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="105.75" thickBot="1">
+    <row r="233" spans="1:20" ht="105" hidden="1">
       <c r="A233" s="11">
         <v>138</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="105.75" thickBot="1">
+    <row r="234" spans="1:20" ht="105" hidden="1">
       <c r="A234" s="11">
         <v>139</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="105.75" thickBot="1">
+    <row r="235" spans="1:20" ht="105" hidden="1">
       <c r="A235" s="11">
         <v>140</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="120.75" thickBot="1">
+    <row r="236" spans="1:20" ht="120" hidden="1">
       <c r="A236" s="11">
         <v>141</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="105.75" thickBot="1">
+    <row r="237" spans="1:20" ht="105" hidden="1">
       <c r="A237" s="11">
         <v>142</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="105.75" thickBot="1">
+    <row r="238" spans="1:20" ht="105" hidden="1">
       <c r="A238" s="11">
         <v>143</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="105.75" thickBot="1">
+    <row r="239" spans="1:20" ht="105" hidden="1">
       <c r="A239" s="11">
         <v>144</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="120.75" thickBot="1">
+    <row r="240" spans="1:20" ht="120" hidden="1">
       <c r="A240" s="11">
         <v>145</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="120.75" thickBot="1">
+    <row r="241" spans="1:20" ht="120" hidden="1">
       <c r="A241" s="11">
         <v>146</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="150.75" thickBot="1">
+    <row r="242" spans="1:20" ht="150">
       <c r="A242" s="11">
         <v>6</v>
       </c>
@@ -12854,16 +12854,16 @@
         <v>604</v>
       </c>
       <c r="F242" s="14">
-        <v>45201</v>
+        <v>45208</v>
       </c>
       <c r="G242" s="15" t="s">
-        <v>605</v>
+        <v>666</v>
       </c>
       <c r="H242" s="15" t="s">
-        <v>606</v>
+        <v>667</v>
       </c>
       <c r="I242" s="15" t="s">
-        <v>607</v>
+        <v>668</v>
       </c>
       <c r="J242" s="16" t="s">
         <v>396</v>
@@ -12883,7 +12883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="150.75" thickBot="1">
+    <row r="243" spans="1:20" ht="150" hidden="1">
       <c r="A243" s="11">
         <v>7</v>
       </c>
@@ -12894,10 +12894,10 @@
         <v>30</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F243" s="14"/>
       <c r="G243" s="15"/>
@@ -12921,7 +12921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="150.75" thickBot="1">
+    <row r="244" spans="1:20" ht="150" hidden="1">
       <c r="A244" s="11">
         <v>8</v>
       </c>
@@ -12932,10 +12932,10 @@
         <v>30</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F244" s="14"/>
       <c r="G244" s="15"/>
@@ -12959,7 +12959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="150.75" thickBot="1">
+    <row r="245" spans="1:20" ht="150" hidden="1">
       <c r="A245" s="11">
         <v>9</v>
       </c>
@@ -12970,10 +12970,10 @@
         <v>30</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F245" s="14"/>
       <c r="G245" s="15"/>
@@ -12997,7 +12997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="150.75" thickBot="1">
+    <row r="246" spans="1:20" ht="150" hidden="1">
       <c r="A246" s="11">
         <v>29</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>30</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E246" s="13" t="s">
         <v>388</v>
@@ -13017,10 +13017,10 @@
         <v>45201</v>
       </c>
       <c r="G246" s="15" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H246" s="15" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I246" s="15" t="s">
         <v>503</v>
@@ -13036,13 +13036,13 @@
         <v>396</v>
       </c>
       <c r="N246" s="16" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="O246" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P246" s="16" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Q246" s="16" t="s">
         <v>495</v>
@@ -13053,7 +13053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="165.75" thickBot="1">
+    <row r="247" spans="1:20" ht="165" hidden="1">
       <c r="A247" s="11">
         <v>37</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>30</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E247" s="13" t="s">
         <v>392</v>
@@ -13073,10 +13073,10 @@
         <v>45201</v>
       </c>
       <c r="G247" s="15" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H247" s="15" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I247" s="15" t="s">
         <v>503</v>
@@ -13092,13 +13092,13 @@
         <v>396</v>
       </c>
       <c r="N247" s="16" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="O247" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P247" s="16" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Q247" s="16" t="s">
         <v>495</v>
@@ -13109,7 +13109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="105.75" thickBot="1">
+    <row r="248" spans="1:20" ht="105" hidden="1">
       <c r="A248" s="11">
         <v>45</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>30</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E248" s="13" t="s">
         <v>395</v>
@@ -13129,7 +13129,7 @@
         <v>45201</v>
       </c>
       <c r="G248" s="15" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H248" s="15"/>
       <c r="I248" s="15"/>
@@ -13144,13 +13144,13 @@
         <v>396</v>
       </c>
       <c r="N248" s="16" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="O248" s="16" t="s">
         <v>396</v>
       </c>
       <c r="P248" s="16" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="Q248" s="16" t="s">
         <v>495</v>
@@ -13163,7 +13163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="120.75" thickBot="1">
+    <row r="249" spans="1:20" ht="120" hidden="1">
       <c r="A249" s="11">
         <v>63</v>
       </c>
@@ -13174,22 +13174,22 @@
         <v>30</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F249" s="14">
         <v>45201</v>
       </c>
       <c r="G249" s="15" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H249" s="15" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I249" s="15" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J249" s="16" t="s">
         <v>396</v>
@@ -13219,7 +13219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="120.75" thickBot="1">
+    <row r="250" spans="1:20" ht="120" hidden="1">
       <c r="A250" s="11">
         <v>64</v>
       </c>
@@ -13230,22 +13230,22 @@
         <v>30</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F250" s="14">
         <v>45201</v>
       </c>
       <c r="G250" s="15" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H250" s="15" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I250" s="15" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J250" s="16" t="s">
         <v>396</v>
@@ -13275,7 +13275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="120.75" thickBot="1">
+    <row r="251" spans="1:20" ht="120" hidden="1">
       <c r="A251" s="11">
         <v>65</v>
       </c>
@@ -13286,22 +13286,22 @@
         <v>30</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F251" s="14">
         <v>45201</v>
       </c>
       <c r="G251" s="15" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H251" s="15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="I251" s="15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J251" s="16" t="s">
         <v>396</v>
@@ -13314,7 +13314,7 @@
         <v>396</v>
       </c>
       <c r="N251" s="16" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="O251" s="16" t="s">
         <v>396</v>
@@ -13331,7 +13331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="120.75" thickBot="1">
+    <row r="252" spans="1:20" ht="120" hidden="1">
       <c r="A252" s="11">
         <v>66</v>
       </c>
@@ -13342,10 +13342,10 @@
         <v>30</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F252" s="14"/>
       <c r="G252" s="15"/>
@@ -13355,7 +13355,7 @@
         <v>497</v>
       </c>
       <c r="K252" s="16" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="L252" s="16"/>
       <c r="M252" s="16"/>
@@ -13369,7 +13369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="120.75" thickBot="1">
+    <row r="253" spans="1:20" ht="120" hidden="1">
       <c r="A253" s="11">
         <v>67</v>
       </c>
@@ -13380,10 +13380,10 @@
         <v>30</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E253" s="13" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F253" s="14"/>
       <c r="G253" s="15"/>
@@ -13393,7 +13393,7 @@
         <v>497</v>
       </c>
       <c r="K253" s="16" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="L253" s="16"/>
       <c r="M253" s="16"/>
@@ -13407,7 +13407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="120.75" thickBot="1">
+    <row r="254" spans="1:20" ht="120" hidden="1">
       <c r="A254" s="11">
         <v>68</v>
       </c>
@@ -13418,10 +13418,10 @@
         <v>30</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E254" s="13" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F254" s="14"/>
       <c r="G254" s="15"/>
@@ -13431,7 +13431,7 @@
         <v>497</v>
       </c>
       <c r="K254" s="16" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="L254" s="16"/>
       <c r="M254" s="16"/>
@@ -13445,7 +13445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="120.75" thickBot="1">
+    <row r="255" spans="1:20" ht="120" hidden="1">
       <c r="A255" s="11">
         <v>69</v>
       </c>
@@ -13456,10 +13456,10 @@
         <v>30</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E255" s="13" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F255" s="14"/>
       <c r="G255" s="15"/>
@@ -13469,7 +13469,7 @@
         <v>497</v>
       </c>
       <c r="K255" s="16" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="L255" s="16"/>
       <c r="M255" s="16"/>
@@ -13483,7 +13483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="120.75" thickBot="1">
+    <row r="256" spans="1:20" ht="120" hidden="1">
       <c r="A256" s="11">
         <v>70</v>
       </c>
@@ -13494,10 +13494,10 @@
         <v>30</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F256" s="14"/>
       <c r="G256" s="15"/>
@@ -13507,7 +13507,7 @@
         <v>497</v>
       </c>
       <c r="K256" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="L256" s="16"/>
       <c r="M256" s="16"/>
@@ -13521,7 +13521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="120.75" thickBot="1">
+    <row r="257" spans="1:20" ht="120" hidden="1">
       <c r="A257" s="11">
         <v>71</v>
       </c>
@@ -13532,10 +13532,10 @@
         <v>30</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E257" s="13" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F257" s="14"/>
       <c r="G257" s="15"/>
@@ -13545,7 +13545,7 @@
         <v>497</v>
       </c>
       <c r="K257" s="16" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L257" s="16"/>
       <c r="M257" s="16"/>
@@ -13559,7 +13559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="120.75" thickBot="1">
+    <row r="258" spans="1:20" ht="120" hidden="1">
       <c r="A258" s="11">
         <v>72</v>
       </c>
@@ -13570,10 +13570,10 @@
         <v>30</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F258" s="14"/>
       <c r="G258" s="15"/>
@@ -13583,7 +13583,7 @@
         <v>497</v>
       </c>
       <c r="K258" s="16" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L258" s="16"/>
       <c r="M258" s="16"/>
@@ -13597,7 +13597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="120.75" thickBot="1">
+    <row r="259" spans="1:20" ht="120" hidden="1">
       <c r="A259" s="11">
         <v>73</v>
       </c>
@@ -13608,10 +13608,10 @@
         <v>30</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F259" s="14"/>
       <c r="G259" s="15"/>
@@ -13621,7 +13621,7 @@
         <v>497</v>
       </c>
       <c r="K259" s="16" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="L259" s="16"/>
       <c r="M259" s="16"/>
@@ -13635,7 +13635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="120">
+    <row r="260" spans="1:20" ht="120" hidden="1">
       <c r="A260" s="11">
         <v>74</v>
       </c>
@@ -13646,10 +13646,10 @@
         <v>30</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F260" s="14"/>
       <c r="G260" s="15"/>
@@ -13659,7 +13659,7 @@
         <v>497</v>
       </c>
       <c r="K260" s="16" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="L260" s="16"/>
       <c r="M260" s="16"/>
@@ -22947,7 +22947,14 @@
       <c r="T859" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T241" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A9:T260" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="147"/>
+        <filter val="24"/>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="VALIDAZIONE"/>
